--- a/results/modeled_times.xlsx
+++ b/results/modeled_times.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34220" yWindow="2180" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -975,727 +975,727 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="241"/>
                 <c:pt idx="0">
-                  <c:v>3.168E-5</c:v>
+                  <c:v>3.8336E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.42785372133224E-5</c:v>
+                  <c:v>4.1505171516653E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.69123984108E-5</c:v>
+                  <c:v>4.47184980135E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.95796190662581E-5</c:v>
+                  <c:v>4.79735238328226E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.22784417494629E-5</c:v>
+                  <c:v>5.12680521868286E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.50072850053952E-5</c:v>
+                  <c:v>5.46001062567441E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.77647181737685E-5</c:v>
+                  <c:v>5.79678977172107E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.05494407955535E-5</c:v>
+                  <c:v>6.1369800994442E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.33602656072E-5</c:v>
+                  <c:v>6.4804332009E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.61961043736571E-5</c:v>
+                  <c:v>6.82701304670714E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.90559559914141E-5</c:v>
+                  <c:v>7.17659449892676E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.19388964243001E-5</c:v>
+                  <c:v>7.52906205303751E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4844070132127E-5</c:v>
+                  <c:v>7.88430876651587E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7770682725219E-5</c:v>
+                  <c:v>8.24223534065238E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.07179946331943E-5</c:v>
+                  <c:v>8.60274932914929E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.36853156187492E-5</c:v>
+                  <c:v>8.96576445234364E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6672E-5</c:v>
+                  <c:v>9.3312E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.96774424705529E-5</c:v>
+                  <c:v>9.69898030881911E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.27010744266448E-5</c:v>
+                  <c:v>0.000100690343033306</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.57423607267187E-5</c:v>
+                  <c:v>0.000104412950908398</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.88007968216E-5</c:v>
+                  <c:v>0.000108156996027</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.18759062037608E-5</c:v>
+                  <c:v>0.000111921882754701</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.49672381325162E-5</c:v>
+                  <c:v>0.000115707047665645</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.80743655988211E-5</c:v>
+                  <c:v>0.000119511956998526</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>0.000101196883498926</c:v>
+                  <c:v>0.000123336104373657</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>0.000104334406990766</c:v>
+                  <c:v>0.000127179008738458</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>0.000107486570010791</c:v>
+                  <c:v>0.000131040212513488</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>0.000110653023932111</c:v>
+                  <c:v>0.000134919279915139</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>0.000113833436347537</c:v>
+                  <c:v>0.000138815795434421</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>0.000117027489963292</c:v>
+                  <c:v>0.000142729362454114</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
-                  <c:v>0.000120234881591107</c:v>
+                  <c:v>0.000146659601988884</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
-                  <c:v>0.000123455321228001</c:v>
+                  <c:v>0.000150606151535002</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>0.0001266885312144</c:v>
+                  <c:v>0.000154568664018</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
-                  <c:v>0.000129934245462444</c:v>
+                  <c:v>0.000158546806828056</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
-                  <c:v>0.000133192208747314</c:v>
+                  <c:v>0.000162540260934143</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="General">
-                  <c:v>0.000136462176055267</c:v>
+                  <c:v>0.000166548720069084</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>0.000139743911982828</c:v>
+                  <c:v>0.000170571889978535</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
-                  <c:v>0.000143037190182209</c:v>
+                  <c:v>0.000174609487727762</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="General">
-                  <c:v>0.0001463417928486</c:v>
+                  <c:v>0.00017866124106075</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="General">
-                  <c:v>0.000149657510245444</c:v>
+                  <c:v>0.000182726887806805</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="General">
-                  <c:v>0.000152984140264254</c:v>
+                  <c:v>0.000186806175330317</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="General">
-                  <c:v>0.000156321488015874</c:v>
+                  <c:v>0.000190898860019843</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="General">
-                  <c:v>0.000159669365450438</c:v>
+                  <c:v>0.000195004706813048</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="General">
-                  <c:v>0.000163027591003537</c:v>
+                  <c:v>0.000199123488754421</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
-                  <c:v>0.000166395989266389</c:v>
+                  <c:v>0.000203254986582986</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="General">
-                  <c:v>0.000169774390677996</c:v>
+                  <c:v>0.000207398988347495</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="General">
-                  <c:v>0.000173162631237498</c:v>
+                  <c:v>0.000211555289046873</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="General">
-                  <c:v>0.000176560552235086</c:v>
+                  <c:v>0.000215723690293857</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="General">
-                  <c:v>0.000179968</c:v>
+                  <c:v>0.000219904</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="General">
-                  <c:v>0.000183384825664289</c:v>
+                  <c:v>0.000224096032080362</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="General">
-                  <c:v>0.000186810884941106</c:v>
+                  <c:v>0.000228299606176382</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="General">
-                  <c:v>0.000190246037916439</c:v>
+                  <c:v>0.000232514547395549</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="General">
-                  <c:v>0.00019369014885329</c:v>
+                  <c:v>0.000236740686066612</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="General">
-                  <c:v>0.000197143086007361</c:v>
+                  <c:v>0.000240977857509201</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="General">
-                  <c:v>0.000200604721453437</c:v>
+                  <c:v>0.000245225901816797</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="General">
-                  <c:v>0.00020407493092169</c:v>
+                  <c:v>0.000249484663652113</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>0.0002075535936432</c:v>
+                  <c:v>0.000253753992054</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="General">
-                  <c:v>0.000211040592204068</c:v>
+                  <c:v>0.000258033740255086</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="General">
-                  <c:v>0.000214535812407522</c:v>
+                  <c:v>0.000262323765509402</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="General">
-                  <c:v>0.000218039143143471</c:v>
+                  <c:v>0.000266623928929339</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="General">
-                  <c:v>0.000221550476265032</c:v>
+                  <c:v>0.000270934095331291</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="General">
-                  <c:v>0.000225069706471539</c:v>
+                  <c:v>0.000275254133089424</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="General">
-                  <c:v>0.000228596731197642</c:v>
+                  <c:v>0.000279583913997053</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="General">
-                  <c:v>0.000232131450508092</c:v>
+                  <c:v>0.000283923313135115</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="General">
-                  <c:v>0.000235673766997851</c:v>
+                  <c:v>0.000288272208747314</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="General">
-                  <c:v>0.0002392235856972</c:v>
+                  <c:v>0.0002926304821215</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="General">
-                  <c:v>0.000242780813981532</c:v>
+                  <c:v>0.000296998017476915</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="General">
-                  <c:v>0.000246345361485547</c:v>
+                  <c:v>0.000301374701856933</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="General">
-                  <c:v>0.000249917140021581</c:v>
+                  <c:v>0.000305760425026976</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="General">
-                  <c:v>0.000253496063501829</c:v>
+                  <c:v>0.000310155079377286</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="General">
-                  <c:v>0.000257082047864222</c:v>
+                  <c:v>0.000314558559830278</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="General">
-                  <c:v>0.000260675011001757</c:v>
+                  <c:v>0.000318970763752196</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="General">
-                  <c:v>0.000264274872695074</c:v>
+                  <c:v>0.000323391590868843</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="General">
-                  <c:v>0.0002678815545481</c:v>
+                  <c:v>0.000327820943185125</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="General">
-                  <c:v>0.000271494979926583</c:v>
+                  <c:v>0.000332258724908229</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="General">
-                  <c:v>0.000275115073899362</c:v>
+                  <c:v>0.000336704842374202</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="General">
-                  <c:v>0.000278741763182214</c:v>
+                  <c:v>0.000341159203977767</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="General">
-                  <c:v>0.000282374976084148</c:v>
+                  <c:v>0.000345621720105184</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="General">
-                  <c:v>0.000286014642456002</c:v>
+                  <c:v>0.000350092303070003</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="General">
-                  <c:v>0.000289660693641239</c:v>
+                  <c:v>0.000354570867051549</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="General">
-                  <c:v>0.0002933130624288</c:v>
+                  <c:v>0.000359057328036</c:v>
                 </c:pt>
                 <c:pt idx="81" formatCode="General">
-                  <c:v>0.000296971683007935</c:v>
+                  <c:v>0.000363551603759919</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="General">
-                  <c:v>0.000300636490924889</c:v>
+                  <c:v>0.000368053613656111</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="General">
-                  <c:v>0.000304307423041359</c:v>
+                  <c:v>0.000372563278801698</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="General">
-                  <c:v>0.000307984417494629</c:v>
+                  <c:v>0.000377080521868286</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="General">
-                  <c:v>0.000311667413659299</c:v>
+                  <c:v>0.000381605267074124</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="General">
-                  <c:v>0.000315356352110534</c:v>
+                  <c:v>0.000386137440138168</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="General">
-                  <c:v>0.000319051174588747</c:v>
+                  <c:v>0.000390676968235933</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="General">
-                  <c:v>0.000322751823965656</c:v>
+                  <c:v>0.00039522377995707</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="General">
-                  <c:v>0.000326458244211656</c:v>
+                  <c:v>0.00039977780526457</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="General">
-                  <c:v>0.000330170380364419</c:v>
+                  <c:v>0.000404338975455524</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="General">
-                  <c:v>0.000333888178498688</c:v>
+                  <c:v>0.00040890722312336</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="General">
-                  <c:v>0.0003376115856972</c:v>
+                  <c:v>0.0004134824821215</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="General">
-                  <c:v>0.000341340550022685</c:v>
+                  <c:v>0.000418064687528356</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="General">
-                  <c:v>0.000345075020490888</c:v>
+                  <c:v>0.000422653775613611</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="General">
-                  <c:v>0.000348814947044583</c:v>
+                  <c:v>0.000427249683805728</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="General">
-                  <c:v>0.000352560280528508</c:v>
+                  <c:v>0.000431852350660635</c:v>
                 </c:pt>
                 <c:pt idx="97" formatCode="General">
-                  <c:v>0.000356310972665213</c:v>
+                  <c:v>0.000436461715831517</c:v>
                 </c:pt>
                 <c:pt idx="98" formatCode="General">
-                  <c:v>0.000360066976031749</c:v>
+                  <c:v>0.000441077720039686</c:v>
                 </c:pt>
                 <c:pt idx="99" formatCode="General">
-                  <c:v>0.000363828244037179</c:v>
+                  <c:v>0.000445700305046474</c:v>
                 </c:pt>
                 <c:pt idx="100" formatCode="General">
-                  <c:v>0.000367594730900876</c:v>
+                  <c:v>0.000450329413626095</c:v>
                 </c:pt>
                 <c:pt idx="101" formatCode="General">
-                  <c:v>0.000371366391631564</c:v>
+                  <c:v>0.000454964989539454</c:v>
                 </c:pt>
                 <c:pt idx="102" formatCode="General">
-                  <c:v>0.000375143182007074</c:v>
+                  <c:v>0.000459606977508843</c:v>
                 </c:pt>
                 <c:pt idx="103" formatCode="General">
-                  <c:v>0.000378925058554796</c:v>
+                  <c:v>0.000464255323193496</c:v>
                 </c:pt>
                 <c:pt idx="104" formatCode="General">
-                  <c:v>0.000382711978532777</c:v>
+                  <c:v>0.000468909973165972</c:v>
                 </c:pt>
                 <c:pt idx="105" formatCode="General">
-                  <c:v>0.000386503899911454</c:v>
+                  <c:v>0.000473570874889318</c:v>
                 </c:pt>
                 <c:pt idx="106" formatCode="General">
-                  <c:v>0.000390300781355992</c:v>
+                  <c:v>0.00047823797669499</c:v>
                 </c:pt>
                 <c:pt idx="107" formatCode="General">
-                  <c:v>0.000394102582209198</c:v>
+                  <c:v>0.000482911227761498</c:v>
                 </c:pt>
                 <c:pt idx="108" formatCode="General">
-                  <c:v>0.000397909262474997</c:v>
+                  <c:v>0.000487590578093746</c:v>
                 </c:pt>
                 <c:pt idx="109" formatCode="General">
-                  <c:v>0.000401720782802429</c:v>
+                  <c:v>0.000492275978503036</c:v>
                 </c:pt>
                 <c:pt idx="110" formatCode="General">
-                  <c:v>0.000405537104470172</c:v>
+                  <c:v>0.000496967380587715</c:v>
                 </c:pt>
                 <c:pt idx="111" formatCode="General">
-                  <c:v>0.000409358189371547</c:v>
+                  <c:v>0.000501664736714434</c:v>
                 </c:pt>
                 <c:pt idx="112" formatCode="General">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="113" formatCode="General">
-                  <c:v>0.000417014499435034</c:v>
+                  <c:v>0.000511077124293792</c:v>
                 </c:pt>
                 <c:pt idx="114" formatCode="General">
-                  <c:v>0.000420849651328579</c:v>
+                  <c:v>0.000515792064160724</c:v>
                 </c:pt>
                 <c:pt idx="115" formatCode="General">
-                  <c:v>0.000424689419891785</c:v>
+                  <c:v>0.000520512774864731</c:v>
                 </c:pt>
                 <c:pt idx="116" formatCode="General">
-                  <c:v>0.000428533769882212</c:v>
+                  <c:v>0.000525239212352764</c:v>
                 </c:pt>
                 <c:pt idx="117" formatCode="General">
-                  <c:v>0.00043238266659141</c:v>
+                  <c:v>0.000529971333239262</c:v>
                 </c:pt>
                 <c:pt idx="118" formatCode="General">
-                  <c:v>0.000436236075832878</c:v>
+                  <c:v>0.000534709094791098</c:v>
                 </c:pt>
                 <c:pt idx="119" formatCode="General">
-                  <c:v>0.000440093963930375</c:v>
+                  <c:v>0.000539452454912968</c:v>
                 </c:pt>
                 <c:pt idx="120" formatCode="General">
-                  <c:v>0.000443956297706579</c:v>
+                  <c:v>0.000544201372133224</c:v>
                 </c:pt>
                 <c:pt idx="121" formatCode="General">
-                  <c:v>0.000447823044472086</c:v>
+                  <c:v>0.000548955805590108</c:v>
                 </c:pt>
                 <c:pt idx="122" formatCode="General">
-                  <c:v>0.000451694172014721</c:v>
+                  <c:v>0.000553715715018402</c:v>
                 </c:pt>
                 <c:pt idx="123" formatCode="General">
-                  <c:v>0.000455569648589164</c:v>
+                  <c:v>0.000558481060736455</c:v>
                 </c:pt>
                 <c:pt idx="124" formatCode="General">
-                  <c:v>0.000459449442906875</c:v>
+                  <c:v>0.000563251803633594</c:v>
                 </c:pt>
                 <c:pt idx="125" formatCode="General">
-                  <c:v>0.000463333524126304</c:v>
+                  <c:v>0.00056802790515788</c:v>
                 </c:pt>
                 <c:pt idx="126" formatCode="General">
-                  <c:v>0.000467221861843381</c:v>
+                  <c:v>0.000572809327304226</c:v>
                 </c:pt>
                 <c:pt idx="127" formatCode="General">
-                  <c:v>0.000471114426082273</c:v>
+                  <c:v>0.000577596032602841</c:v>
                 </c:pt>
                 <c:pt idx="128" formatCode="General">
-                  <c:v>0.0004750111872864</c:v>
+                  <c:v>0.000582387984108</c:v>
                 </c:pt>
                 <c:pt idx="129" formatCode="General">
-                  <c:v>0.000478912116309701</c:v>
+                  <c:v>0.000587185145387126</c:v>
                 </c:pt>
                 <c:pt idx="130" formatCode="General">
-                  <c:v>0.000482817184408137</c:v>
+                  <c:v>0.000591987480510171</c:v>
                 </c:pt>
                 <c:pt idx="131" formatCode="General">
-                  <c:v>0.000486726363231433</c:v>
+                  <c:v>0.000596794954039292</c:v>
                 </c:pt>
                 <c:pt idx="132" formatCode="General">
-                  <c:v>0.000490639624815043</c:v>
+                  <c:v>0.000601607531018804</c:v>
                 </c:pt>
                 <c:pt idx="133" formatCode="General">
-                  <c:v>0.000494556941572327</c:v>
+                  <c:v>0.000606425176965408</c:v>
                 </c:pt>
                 <c:pt idx="134" formatCode="General">
-                  <c:v>0.000498478286286943</c:v>
+                  <c:v>0.000611247857858679</c:v>
                 </c:pt>
                 <c:pt idx="135" formatCode="General">
-                  <c:v>0.000502403632105444</c:v>
+                  <c:v>0.000616075540131805</c:v>
                 </c:pt>
                 <c:pt idx="136" formatCode="General">
-                  <c:v>0.000506332952530065</c:v>
+                  <c:v>0.000620908190662581</c:v>
                 </c:pt>
                 <c:pt idx="137" formatCode="General">
-                  <c:v>0.000510266221411702</c:v>
+                  <c:v>0.000625745776764627</c:v>
                 </c:pt>
                 <c:pt idx="138" formatCode="General">
-                  <c:v>0.000514203412943078</c:v>
+                  <c:v>0.000630588266178848</c:v>
                 </c:pt>
                 <c:pt idx="139" formatCode="General">
-                  <c:v>0.000518144501652083</c:v>
+                  <c:v>0.000635435627065104</c:v>
                 </c:pt>
                 <c:pt idx="140" formatCode="General">
-                  <c:v>0.000522089462395285</c:v>
+                  <c:v>0.000640287827994106</c:v>
                 </c:pt>
                 <c:pt idx="141" formatCode="General">
-                  <c:v>0.00052603827035161</c:v>
+                  <c:v>0.000645144837939512</c:v>
                 </c:pt>
                 <c:pt idx="142" formatCode="General">
-                  <c:v>0.000529990901016185</c:v>
+                  <c:v>0.000650006626270231</c:v>
                 </c:pt>
                 <c:pt idx="143" formatCode="General">
-                  <c:v>0.000533947330194328</c:v>
+                  <c:v>0.00065487316274291</c:v>
                 </c:pt>
                 <c:pt idx="144" formatCode="General">
-                  <c:v>0.000537907533995703</c:v>
+                  <c:v>0.000659744417494629</c:v>
                 </c:pt>
                 <c:pt idx="145" formatCode="General">
-                  <c:v>0.000541871488828605</c:v>
+                  <c:v>0.000664620361035756</c:v>
                 </c:pt>
                 <c:pt idx="146" formatCode="General">
-                  <c:v>0.000545839171394401</c:v>
+                  <c:v>0.000669500964243001</c:v>
                 </c:pt>
                 <c:pt idx="147" formatCode="General">
-                  <c:v>0.000549810558682101</c:v>
+                  <c:v>0.000674386198352626</c:v>
                 </c:pt>
                 <c:pt idx="148" formatCode="General">
-                  <c:v>0.000553785627963064</c:v>
+                  <c:v>0.00067927603495383</c:v>
                 </c:pt>
                 <c:pt idx="149" formatCode="General">
-                  <c:v>0.000557764356785833</c:v>
+                  <c:v>0.000684170445982291</c:v>
                 </c:pt>
                 <c:pt idx="150" formatCode="General">
-                  <c:v>0.000561746722971093</c:v>
+                  <c:v>0.000689069403713867</c:v>
                 </c:pt>
                 <c:pt idx="151" formatCode="General">
-                  <c:v>0.000565732704606757</c:v>
+                  <c:v>0.000693972880758447</c:v>
                 </c:pt>
                 <c:pt idx="152" formatCode="General">
-                  <c:v>0.000569722280043162</c:v>
+                  <c:v>0.000698880850053953</c:v>
                 </c:pt>
                 <c:pt idx="153" formatCode="General">
-                  <c:v>0.000573715427888383</c:v>
+                  <c:v>0.000703793284860478</c:v>
                 </c:pt>
                 <c:pt idx="154" formatCode="General">
-                  <c:v>0.000577712127003658</c:v>
+                  <c:v>0.000708710158754573</c:v>
                 </c:pt>
                 <c:pt idx="155" formatCode="General">
-                  <c:v>0.000581712356498923</c:v>
+                  <c:v>0.000713631445623654</c:v>
                 </c:pt>
                 <c:pt idx="156" formatCode="General">
-                  <c:v>0.000585716095728445</c:v>
+                  <c:v>0.000718557119660556</c:v>
                 </c:pt>
                 <c:pt idx="157" formatCode="General">
-                  <c:v>0.00058972332428656</c:v>
+                  <c:v>0.0007234871553582</c:v>
                 </c:pt>
                 <c:pt idx="158" formatCode="General">
-                  <c:v>0.000593734022003514</c:v>
+                  <c:v>0.000728421527504393</c:v>
                 </c:pt>
                 <c:pt idx="159" formatCode="General">
-                  <c:v>0.000597748168941394</c:v>
+                  <c:v>0.000733360211176742</c:v>
                 </c:pt>
                 <c:pt idx="160" formatCode="General">
-                  <c:v>0.000601765745390148</c:v>
+                  <c:v>0.000738303181737686</c:v>
                 </c:pt>
                 <c:pt idx="161" formatCode="General">
-                  <c:v>0.000605786731863711</c:v>
+                  <c:v>0.000743250414829639</c:v>
                 </c:pt>
                 <c:pt idx="162" formatCode="General">
-                  <c:v>0.0006098111090962</c:v>
+                  <c:v>0.00074820188637025</c:v>
                 </c:pt>
                 <c:pt idx="163" formatCode="General">
-                  <c:v>0.000613838858038206</c:v>
+                  <c:v>0.000753157572547757</c:v>
                 </c:pt>
                 <c:pt idx="164" formatCode="General">
-                  <c:v>0.000617869959853166</c:v>
+                  <c:v>0.000758117449816458</c:v>
                 </c:pt>
                 <c:pt idx="165" formatCode="General">
-                  <c:v>0.000621904395913817</c:v>
+                  <c:v>0.000763081494892271</c:v>
                 </c:pt>
                 <c:pt idx="166" formatCode="General">
-                  <c:v>0.000625942147798724</c:v>
+                  <c:v>0.000768049684748405</c:v>
                 </c:pt>
                 <c:pt idx="167" formatCode="General">
-                  <c:v>0.000629983197288888</c:v>
+                  <c:v>0.00077302199661111</c:v>
                 </c:pt>
                 <c:pt idx="168" formatCode="General">
-                  <c:v>0.000634027526364428</c:v>
+                  <c:v>0.000777998407955535</c:v>
                 </c:pt>
                 <c:pt idx="169" formatCode="General">
-                  <c:v>0.000638075117201335</c:v>
+                  <c:v>0.000782978896501669</c:v>
                 </c:pt>
                 <c:pt idx="170" formatCode="General">
-                  <c:v>0.000642125952168295</c:v>
+                  <c:v>0.000787963440210369</c:v>
                 </c:pt>
                 <c:pt idx="171" formatCode="General">
-                  <c:v>0.000646180013823579</c:v>
+                  <c:v>0.000792952017279474</c:v>
                 </c:pt>
                 <c:pt idx="172" formatCode="General">
-                  <c:v>0.000650237284912005</c:v>
+                  <c:v>0.000797944606140006</c:v>
                 </c:pt>
                 <c:pt idx="173" formatCode="General">
-                  <c:v>0.000654297748361958</c:v>
+                  <c:v>0.000802941185452447</c:v>
                 </c:pt>
                 <c:pt idx="174" formatCode="General">
-                  <c:v>0.000658361387282478</c:v>
+                  <c:v>0.000807941734103098</c:v>
                 </c:pt>
                 <c:pt idx="175" formatCode="General">
-                  <c:v>0.000662428184960408</c:v>
+                  <c:v>0.000812946231200511</c:v>
                 </c:pt>
                 <c:pt idx="176" formatCode="General">
-                  <c:v>0.0006664981248576</c:v>
+                  <c:v>0.000817954656072</c:v>
                 </c:pt>
                 <c:pt idx="177" formatCode="General">
-                  <c:v>0.00067057119060818</c:v>
+                  <c:v>0.000822966988260225</c:v>
                 </c:pt>
                 <c:pt idx="178" formatCode="General">
-                  <c:v>0.00067464736601587</c:v>
+                  <c:v>0.000827983207519838</c:v>
                 </c:pt>
                 <c:pt idx="179" formatCode="General">
-                  <c:v>0.000678726635051368</c:v>
+                  <c:v>0.000833003293814211</c:v>
                 </c:pt>
                 <c:pt idx="180" formatCode="General">
-                  <c:v>0.000682808981849778</c:v>
+                  <c:v>0.000838027227312222</c:v>
                 </c:pt>
                 <c:pt idx="181" formatCode="General">
-                  <c:v>0.000686894390708089</c:v>
+                  <c:v>0.000843054988385111</c:v>
                 </c:pt>
                 <c:pt idx="182" formatCode="General">
-                  <c:v>0.000690982846082718</c:v>
+                  <c:v>0.000848086557603397</c:v>
                 </c:pt>
                 <c:pt idx="183" formatCode="General">
-                  <c:v>0.000695074332587086</c:v>
+                  <c:v>0.000853121915733857</c:v>
                 </c:pt>
                 <c:pt idx="184" formatCode="General">
-                  <c:v>0.000699168834989257</c:v>
+                  <c:v>0.000858161043736571</c:v>
                 </c:pt>
                 <c:pt idx="185" formatCode="General">
-                  <c:v>0.000703266338209617</c:v>
+                  <c:v>0.000863203922762022</c:v>
                 </c:pt>
                 <c:pt idx="186" formatCode="General">
-                  <c:v>0.000707366827318599</c:v>
+                  <c:v>0.000868250534148249</c:v>
                 </c:pt>
                 <c:pt idx="187" formatCode="General">
-                  <c:v>0.000711470287534454</c:v>
+                  <c:v>0.000873300859418067</c:v>
                 </c:pt>
                 <c:pt idx="188" formatCode="General">
-                  <c:v>0.000715576704221069</c:v>
+                  <c:v>0.000878354880276336</c:v>
                 </c:pt>
                 <c:pt idx="189" formatCode="General">
-                  <c:v>0.000719686062885825</c:v>
+                  <c:v>0.000883412578607281</c:v>
                 </c:pt>
                 <c:pt idx="190" formatCode="General">
-                  <c:v>0.000723798349177493</c:v>
+                  <c:v>0.000888473936471866</c:v>
                 </c:pt>
                 <c:pt idx="191" formatCode="General">
-                  <c:v>0.000727913548884182</c:v>
+                  <c:v>0.000893538936105227</c:v>
                 </c:pt>
                 <c:pt idx="192" formatCode="General">
-                  <c:v>0.000732031647931313</c:v>
+                  <c:v>0.000898607559914141</c:v>
                 </c:pt>
                 <c:pt idx="193" formatCode="General">
-                  <c:v>0.000736152632379641</c:v>
+                  <c:v>0.000903679790474551</c:v>
                 </c:pt>
                 <c:pt idx="194" formatCode="General">
-                  <c:v>0.000740276488423312</c:v>
+                  <c:v>0.000908755610529141</c:v>
                 </c:pt>
                 <c:pt idx="195" formatCode="General">
-                  <c:v>0.000744403202387962</c:v>
+                  <c:v>0.000913835002984953</c:v>
                 </c:pt>
                 <c:pt idx="196" formatCode="General">
-                  <c:v>0.000748532760728838</c:v>
+                  <c:v>0.000918917950911047</c:v>
                 </c:pt>
                 <c:pt idx="197" formatCode="General">
-                  <c:v>0.000752665150028971</c:v>
+                  <c:v>0.000924004437536214</c:v>
                 </c:pt>
                 <c:pt idx="198" formatCode="General">
-                  <c:v>0.000756800356997376</c:v>
+                  <c:v>0.00092909444624672</c:v>
                 </c:pt>
                 <c:pt idx="199" formatCode="General">
-                  <c:v>0.000760938368467281</c:v>
+                  <c:v>0.000934187960584102</c:v>
                 </c:pt>
                 <c:pt idx="200" formatCode="General">
-                  <c:v>0.000765079171394401</c:v>
+                  <c:v>0.000939284964243001</c:v>
                 </c:pt>
                 <c:pt idx="201" formatCode="General">
-                  <c:v>0.000769222752855228</c:v>
+                  <c:v>0.000944385441069035</c:v>
                 </c:pt>
                 <c:pt idx="202" formatCode="General">
-                  <c:v>0.00077336910004537</c:v>
+                  <c:v>0.000949489375056712</c:v>
                 </c:pt>
                 <c:pt idx="203" formatCode="General">
-                  <c:v>0.000777518200277905</c:v>
+                  <c:v>0.000954596750347382</c:v>
                 </c:pt>
                 <c:pt idx="204" formatCode="General">
-                  <c:v>0.000781670040981777</c:v>
+                  <c:v>0.000959707551227221</c:v>
                 </c:pt>
                 <c:pt idx="205" formatCode="General">
-                  <c:v>0.000785824609700211</c:v>
+                  <c:v>0.000964821762125263</c:v>
                 </c:pt>
                 <c:pt idx="206" formatCode="General">
-                  <c:v>0.000789981894089165</c:v>
+                  <c:v>0.000969939367611456</c:v>
                 </c:pt>
                 <c:pt idx="207" formatCode="General">
-                  <c:v>0.000794141881915807</c:v>
+                  <c:v>0.000975060352394759</c:v>
                 </c:pt>
                 <c:pt idx="208" formatCode="General">
-                  <c:v>0.000798304561057016</c:v>
+                  <c:v>0.00098018470132127</c:v>
                 </c:pt>
                 <c:pt idx="209" formatCode="General">
-                  <c:v>0.000802469919497915</c:v>
+                  <c:v>0.000985312399372393</c:v>
                 </c:pt>
                 <c:pt idx="210" formatCode="General">
-                  <c:v>0.000806637945330426</c:v>
+                  <c:v>0.000990443431663033</c:v>
                 </c:pt>
                 <c:pt idx="211" formatCode="General">
-                  <c:v>0.000810808626751856</c:v>
+                  <c:v>0.00099557778343982</c:v>
                 </c:pt>
                 <c:pt idx="212" formatCode="General">
-                  <c:v>0.000814981952063497</c:v>
+                  <c:v>0.00100071544007937</c:v>
                 </c:pt>
                 <c:pt idx="213" formatCode="General">
-                  <c:v>0.000819157909669267</c:v>
+                  <c:v>0.00100585638708658</c:v>
                 </c:pt>
                 <c:pt idx="214" formatCode="General">
-                  <c:v>0.000823336488074358</c:v>
+                  <c:v>0.00101100061009295</c:v>
                 </c:pt>
                 <c:pt idx="215" formatCode="General">
-                  <c:v>0.000827517675883918</c:v>
+                  <c:v>0.0010161480948549</c:v>
                 </c:pt>
                 <c:pt idx="216" formatCode="General">
-                  <c:v>0.000831701461801752</c:v>
+                  <c:v>0.00102129882725219</c:v>
                 </c:pt>
                 <c:pt idx="217" formatCode="General">
-                  <c:v>0.00083588783462905</c:v>
+                  <c:v>0.00102645279328631</c:v>
                 </c:pt>
                 <c:pt idx="218" formatCode="General">
-                  <c:v>0.000840076783263127</c:v>
+                  <c:v>0.00103160997907891</c:v>
                 </c:pt>
                 <c:pt idx="219" formatCode="General">
-                  <c:v>0.000844268296696194</c:v>
+                  <c:v>0.00103677037087024</c:v>
                 </c:pt>
                 <c:pt idx="220" formatCode="General">
-                  <c:v>0.000848462364014148</c:v>
+                  <c:v>0.00104193395501769</c:v>
                 </c:pt>
                 <c:pt idx="221" formatCode="General">
-                  <c:v>0.000852658974395377</c:v>
+                  <c:v>0.00104710071799422</c:v>
                 </c:pt>
                 <c:pt idx="222" formatCode="General">
-                  <c:v>0.000856858117109593</c:v>
+                  <c:v>0.00105227064638699</c:v>
                 </c:pt>
                 <c:pt idx="223" formatCode="General">
-                  <c:v>0.000861059781516678</c:v>
+                  <c:v>0.00105744372689585</c:v>
                 </c:pt>
                 <c:pt idx="224" formatCode="General">
-                  <c:v>0.000865263957065554</c:v>
+                  <c:v>0.00106261994633194</c:v>
                 </c:pt>
                 <c:pt idx="225" formatCode="General">
-                  <c:v>0.000869470633293071</c:v>
+                  <c:v>0.00106779929161634</c:v>
                 </c:pt>
                 <c:pt idx="226" formatCode="General">
-                  <c:v>0.000873679799822908</c:v>
+                  <c:v>0.00107298174977864</c:v>
                 </c:pt>
                 <c:pt idx="227" formatCode="General">
-                  <c:v>0.000877891446364501</c:v>
+                  <c:v>0.00107816730795563</c:v>
                 </c:pt>
                 <c:pt idx="228" formatCode="General">
-                  <c:v>0.000882105562711983</c:v>
+                  <c:v>0.00108335595338998</c:v>
                 </c:pt>
                 <c:pt idx="229" formatCode="General">
-                  <c:v>0.000886322138743142</c:v>
+                  <c:v>0.00108854767342893</c:v>
                 </c:pt>
                 <c:pt idx="230" formatCode="General">
-                  <c:v>0.000890541164418396</c:v>
+                  <c:v>0.001093742455523</c:v>
                 </c:pt>
                 <c:pt idx="231" formatCode="General">
-                  <c:v>0.000894762629779789</c:v>
+                  <c:v>0.00109894028722474</c:v>
                 </c:pt>
                 <c:pt idx="232" formatCode="General">
-                  <c:v>0.000898986524949993</c:v>
+                  <c:v>0.00110414115618749</c:v>
                 </c:pt>
                 <c:pt idx="233" formatCode="General">
-                  <c:v>0.00090321284013134</c:v>
+                  <c:v>0.00110934505016418</c:v>
                 </c:pt>
                 <c:pt idx="234" formatCode="General">
-                  <c:v>0.000907441565604857</c:v>
+                  <c:v>0.00111455195700607</c:v>
                 </c:pt>
                 <c:pt idx="235" formatCode="General">
-                  <c:v>0.000911672691729324</c:v>
+                  <c:v>0.00111976186466165</c:v>
                 </c:pt>
                 <c:pt idx="236" formatCode="General">
-                  <c:v>0.000915906208940343</c:v>
+                  <c:v>0.00112497476117543</c:v>
                 </c:pt>
                 <c:pt idx="237" formatCode="General">
-                  <c:v>0.000920142107749427</c:v>
+                  <c:v>0.00113019063468678</c:v>
                 </c:pt>
                 <c:pt idx="238" formatCode="General">
-                  <c:v>0.000924380378743094</c:v>
+                  <c:v>0.00113540947342887</c:v>
                 </c:pt>
                 <c:pt idx="239" formatCode="General">
-                  <c:v>0.000928621012581988</c:v>
+                  <c:v>0.00114063126572748</c:v>
                 </c:pt>
                 <c:pt idx="240" formatCode="General">
-                  <c:v>0.000932864</c:v>
+                  <c:v>0.001145856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,7 +2443,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$243</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="241"/>
                 <c:pt idx="0">
                   <c:v>0.000186798</c:v>
@@ -2499,673 +2499,673 @@
                 <c:pt idx="17">
                   <c:v>0.000815832</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="General">
                   <c:v>0.000866658</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" formatCode="General">
                   <c:v>0.00091902</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" formatCode="General">
                   <c:v>0.000972918</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="General">
                   <c:v>0.001028352</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="General">
                   <c:v>0.001085322</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="General">
                   <c:v>0.001143828</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="General">
                   <c:v>0.00120387</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="General">
                   <c:v>0.001265448</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="General">
                   <c:v>0.001328562</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="General">
                   <c:v>0.001393212</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="General">
                   <c:v>0.001459398</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="General">
                   <c:v>0.00152712</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="General">
                   <c:v>0.001596378</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="General">
                   <c:v>0.001667172</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="General">
                   <c:v>0.001739502</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="General">
                   <c:v>0.001813368</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="General">
                   <c:v>0.00188877</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="General">
                   <c:v>0.001965708</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="36" formatCode="General">
                   <c:v>0.002044182</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="General">
                   <c:v>0.002124192</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="38" formatCode="General">
                   <c:v>0.002205738</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="39" formatCode="General">
                   <c:v>0.00228882</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="40" formatCode="General">
                   <c:v>0.002373438</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="41" formatCode="General">
                   <c:v>0.002459592</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="42" formatCode="General">
                   <c:v>0.002547282</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="43" formatCode="General">
                   <c:v>0.002636508</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="44" formatCode="General">
                   <c:v>0.00272727</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="45" formatCode="General">
                   <c:v>0.002819568</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="46" formatCode="General">
                   <c:v>0.002913402</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="47" formatCode="General">
                   <c:v>0.003008772</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="48" formatCode="General">
                   <c:v>0.003105678</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="49" formatCode="General">
                   <c:v>0.00320412</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="50" formatCode="General">
                   <c:v>0.003304098</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="51" formatCode="General">
                   <c:v>0.003405612</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="52" formatCode="General">
                   <c:v>0.003508662</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="53" formatCode="General">
                   <c:v>0.003613248</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="54" formatCode="General">
                   <c:v>0.00371937</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="55" formatCode="General">
                   <c:v>0.003827028</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="56" formatCode="General">
                   <c:v>0.003936222</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="57" formatCode="General">
                   <c:v>0.004046952</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="58" formatCode="General">
                   <c:v>0.004159218</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="59" formatCode="General">
                   <c:v>0.00427302</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="60" formatCode="General">
                   <c:v>0.004388358</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="61" formatCode="General">
                   <c:v>0.004505232</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="62" formatCode="General">
                   <c:v>0.004623642</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="63" formatCode="General">
                   <c:v>0.004743588</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="64" formatCode="General">
                   <c:v>0.00486507</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="65" formatCode="General">
                   <c:v>0.004988088</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="66" formatCode="General">
                   <c:v>0.005112642</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="67" formatCode="General">
                   <c:v>0.005238732</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="68" formatCode="General">
                   <c:v>0.005366358</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="69" formatCode="General">
                   <c:v>0.00549552</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="70" formatCode="General">
                   <c:v>0.005626218</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="71" formatCode="General">
                   <c:v>0.005758452</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="72" formatCode="General">
                   <c:v>0.005892222</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="73" formatCode="General">
                   <c:v>0.006027528</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="74" formatCode="General">
                   <c:v>0.00616437</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="75" formatCode="General">
                   <c:v>0.006302748</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="76" formatCode="General">
                   <c:v>0.006442662</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="77" formatCode="General">
                   <c:v>0.006584112</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="78" formatCode="General">
                   <c:v>0.006727098</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="79" formatCode="General">
                   <c:v>0.00687162</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="80" formatCode="General">
                   <c:v>0.007017678</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="81" formatCode="General">
                   <c:v>0.007165272</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="82" formatCode="General">
                   <c:v>0.007314402</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="83" formatCode="General">
                   <c:v>0.007465068</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="84" formatCode="General">
                   <c:v>0.00761727</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="85" formatCode="General">
                   <c:v>0.007771008</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="86" formatCode="General">
                   <c:v>0.007926282</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="87" formatCode="General">
                   <c:v>0.008083092</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="88" formatCode="General">
                   <c:v>0.008241438</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="89" formatCode="General">
                   <c:v>0.00840132</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="90" formatCode="General">
                   <c:v>0.008562738</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="91" formatCode="General">
                   <c:v>0.008725692</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="92" formatCode="General">
                   <c:v>0.008890182</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="93" formatCode="General">
                   <c:v>0.009056208</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="94" formatCode="General">
                   <c:v>0.00922377</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="95" formatCode="General">
                   <c:v>0.009392868</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="96" formatCode="General">
                   <c:v>0.009563502</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="97" formatCode="General">
                   <c:v>0.009735672</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="98" formatCode="General">
                   <c:v>0.009909378</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="99" formatCode="General">
                   <c:v>0.01008462</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="100" formatCode="General">
                   <c:v>0.010261398</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="101" formatCode="General">
                   <c:v>0.010439712</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="102" formatCode="General">
                   <c:v>0.010619562</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="103" formatCode="General">
                   <c:v>0.010800948</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="104" formatCode="General">
                   <c:v>0.01098387</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="105" formatCode="General">
                   <c:v>0.011168328</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="106" formatCode="General">
                   <c:v>0.011354322</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="107" formatCode="General">
                   <c:v>0.011541852</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="108" formatCode="General">
                   <c:v>0.011730918</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="109" formatCode="General">
                   <c:v>0.01192152</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="110" formatCode="General">
                   <c:v>0.012113658</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="111" formatCode="General">
                   <c:v>0.012307332</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="112" formatCode="General">
                   <c:v>0.012502542</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="113" formatCode="General">
                   <c:v>0.012699288</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="114" formatCode="General">
                   <c:v>0.01289757</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="115" formatCode="General">
                   <c:v>0.013097388</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="116" formatCode="General">
                   <c:v>0.013298742</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="117" formatCode="General">
                   <c:v>0.013501632</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="118" formatCode="General">
                   <c:v>0.013706058</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="119" formatCode="General">
                   <c:v>0.01391202</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="120" formatCode="General">
                   <c:v>0.014119518</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="121" formatCode="General">
                   <c:v>0.014328552</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="122" formatCode="General">
                   <c:v>0.014539122</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="123" formatCode="General">
                   <c:v>0.014751228</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="124" formatCode="General">
                   <c:v>0.01496487</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="125" formatCode="General">
                   <c:v>0.015180048</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="126" formatCode="General">
                   <c:v>0.015396762</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="127" formatCode="General">
                   <c:v>0.015615012</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="128" formatCode="General">
                   <c:v>0.015834798</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="129" formatCode="General">
                   <c:v>0.01605612</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="130" formatCode="General">
                   <c:v>0.016278978</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="131" formatCode="General">
                   <c:v>0.016503372</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="132" formatCode="General">
                   <c:v>0.016729302</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="133" formatCode="General">
                   <c:v>0.016956768</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="134" formatCode="General">
                   <c:v>0.01718577</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="135" formatCode="General">
                   <c:v>0.017416308</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="136" formatCode="General">
                   <c:v>0.017648382</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="137" formatCode="General">
                   <c:v>0.017881992</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="138" formatCode="General">
                   <c:v>0.018117138</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="139" formatCode="General">
                   <c:v>0.01835382</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="140" formatCode="General">
                   <c:v>0.018592038</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="141" formatCode="General">
                   <c:v>0.018831792</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="142" formatCode="General">
                   <c:v>0.019073082</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="143" formatCode="General">
                   <c:v>0.019315908</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="144" formatCode="General">
                   <c:v>0.01956027</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="145" formatCode="General">
                   <c:v>0.019806168</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="146" formatCode="General">
                   <c:v>0.020053602</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="147" formatCode="General">
                   <c:v>0.020302572</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="148" formatCode="General">
                   <c:v>0.020553078</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="149" formatCode="General">
                   <c:v>0.02080512</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="150" formatCode="General">
                   <c:v>0.021058698</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="151" formatCode="General">
                   <c:v>0.021313812</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="152" formatCode="General">
                   <c:v>0.021570462</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="153" formatCode="General">
                   <c:v>0.021828648</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="154" formatCode="General">
                   <c:v>0.02208837</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="155" formatCode="General">
                   <c:v>0.022349628</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="156" formatCode="General">
                   <c:v>0.022612422</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="157" formatCode="General">
                   <c:v>0.022876752</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="158" formatCode="General">
                   <c:v>0.023142618</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="159" formatCode="General">
                   <c:v>0.02341002</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="160" formatCode="General">
                   <c:v>0.023678958</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="161" formatCode="General">
                   <c:v>0.023949432</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="162" formatCode="General">
                   <c:v>0.024221442</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="163" formatCode="General">
                   <c:v>0.024494988</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="164" formatCode="General">
                   <c:v>0.02477007</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="165" formatCode="General">
                   <c:v>0.025046688</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="166" formatCode="General">
                   <c:v>0.025324842</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="167" formatCode="General">
                   <c:v>0.025604532</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="168" formatCode="General">
                   <c:v>0.025885758</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="169" formatCode="General">
                   <c:v>0.02616852</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="170" formatCode="General">
                   <c:v>0.026452818</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="171" formatCode="General">
                   <c:v>0.026738652</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="172" formatCode="General">
                   <c:v>0.027026022</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="173" formatCode="General">
                   <c:v>0.027314928</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="174" formatCode="General">
                   <c:v>0.02760537</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="175" formatCode="General">
                   <c:v>0.027897348</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="176" formatCode="General">
                   <c:v>0.028190862</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="177" formatCode="General">
                   <c:v>0.028485912</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="178" formatCode="General">
                   <c:v>0.028782498</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="179" formatCode="General">
                   <c:v>0.02908062</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="180" formatCode="General">
                   <c:v>0.029380278</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="181" formatCode="General">
                   <c:v>0.029681472</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="182" formatCode="General">
                   <c:v>0.029984202</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="183" formatCode="General">
                   <c:v>0.030288468</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="184" formatCode="General">
                   <c:v>0.03059427</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="185" formatCode="General">
                   <c:v>0.030901608</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="186" formatCode="General">
                   <c:v>0.031210482</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="187" formatCode="General">
                   <c:v>0.031520892</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="188" formatCode="General">
                   <c:v>0.031832838</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="189" formatCode="General">
                   <c:v>0.03214632</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="190" formatCode="General">
                   <c:v>0.032461338</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="191" formatCode="General">
                   <c:v>0.032777892</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="192" formatCode="General">
                   <c:v>0.033095982</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="193" formatCode="General">
                   <c:v>0.033415608</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="194" formatCode="General">
                   <c:v>0.03373677</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="195" formatCode="General">
                   <c:v>0.034059468</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="196" formatCode="General">
                   <c:v>0.034383702</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="197" formatCode="General">
                   <c:v>0.034709472</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="198" formatCode="General">
                   <c:v>0.035036778</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="199" formatCode="General">
                   <c:v>0.03536562</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="200" formatCode="General">
                   <c:v>0.035695998</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="201" formatCode="General">
                   <c:v>0.036027912</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="202" formatCode="General">
                   <c:v>0.036361362</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="203" formatCode="General">
                   <c:v>0.036696348</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="204" formatCode="General">
                   <c:v>0.03703287</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="205" formatCode="General">
                   <c:v>0.037370928</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="206" formatCode="General">
                   <c:v>0.037710522</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="207" formatCode="General">
                   <c:v>0.038051652</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="208" formatCode="General">
                   <c:v>0.038394318</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="209" formatCode="General">
                   <c:v>0.03873852</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="210" formatCode="General">
                   <c:v>0.039084258</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="211" formatCode="General">
                   <c:v>0.039431532</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="212" formatCode="General">
                   <c:v>0.039780342</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="213" formatCode="General">
                   <c:v>0.040130688</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="214" formatCode="General">
                   <c:v>0.04048257</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="215" formatCode="General">
                   <c:v>0.040835988</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="216" formatCode="General">
                   <c:v>0.041190942</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="217" formatCode="General">
                   <c:v>0.041547432</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="218" formatCode="General">
                   <c:v>0.041905458</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="219" formatCode="General">
                   <c:v>0.04226502</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="220" formatCode="General">
                   <c:v>0.042626118</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="221" formatCode="General">
                   <c:v>0.042988752</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="222" formatCode="General">
                   <c:v>0.043352922</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="223" formatCode="General">
                   <c:v>0.043718628</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="224" formatCode="General">
                   <c:v>0.04408587</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="225" formatCode="General">
                   <c:v>0.044454648</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="226" formatCode="General">
                   <c:v>0.044824962</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="227" formatCode="General">
                   <c:v>0.045196812</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="228" formatCode="General">
                   <c:v>0.045570198</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="229" formatCode="General">
                   <c:v>0.04594512</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="230" formatCode="General">
                   <c:v>0.046321578</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="231" formatCode="General">
                   <c:v>0.046699572</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="232" formatCode="General">
                   <c:v>0.047079102</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="233" formatCode="General">
                   <c:v>0.047460168</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="234" formatCode="General">
                   <c:v>0.04784277</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="235" formatCode="General">
                   <c:v>0.048226908</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="236" formatCode="General">
                   <c:v>0.048612582</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="237" formatCode="General">
                   <c:v>0.048999792</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="238" formatCode="General">
                   <c:v>0.049388538</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="239" formatCode="General">
                   <c:v>0.04977882</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="240" formatCode="General">
                   <c:v>0.050170638</c:v>
                 </c:pt>
               </c:numCache>
@@ -3180,11 +3180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="553369608"/>
-        <c:axId val="663841688"/>
+        <c:axId val="664343944"/>
+        <c:axId val="664810776"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="553369608"/>
+        <c:axId val="664343944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,7 +3213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="663841688"/>
+        <c:crossAx val="664810776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3223,7 +3223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663841688"/>
+        <c:axId val="664810776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,7 +3263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553369608"/>
+        <c:crossAx val="664343944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3447,94 +3447,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.000413184</c:v>
+                  <c:v>0.000506368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3753,11 +3753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="669615064"/>
-        <c:axId val="669616056"/>
+        <c:axId val="664889464"/>
+        <c:axId val="664894968"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="669615064"/>
+        <c:axId val="664889464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +3786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="669616056"/>
+        <c:crossAx val="664894968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3796,7 +3796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="669616056"/>
+        <c:axId val="664894968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3836,7 +3836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669615064"/>
+        <c:crossAx val="664889464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3945,16 +3945,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.012915726</c:v>
+                  <c:v>0.01300891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.012929294</c:v>
+                  <c:v>0.013022478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.013480462</c:v>
+                  <c:v>0.013573646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01397787</c:v>
+                  <c:v>0.014191118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3969,11 +3969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="690100488"/>
-        <c:axId val="669803560"/>
+        <c:axId val="664925928"/>
+        <c:axId val="664931384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="690100488"/>
+        <c:axId val="664925928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="16.0"/>
@@ -4003,12 +4003,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="669803560"/>
+        <c:crossAx val="664931384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="669803560"/>
+        <c:axId val="664931384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4039,7 +4039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="690100488"/>
+        <c:crossAx val="664925928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4758,7 +4758,7 @@
   <dimension ref="A1:P243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4837,16 +4837,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>3.1680000000000002E-5</v>
-      </c>
-      <c r="C3">
+        <v>3.8336E-5</v>
+      </c>
+      <c r="C3" s="2">
         <v>1.8679800000000001E-4</v>
       </c>
       <c r="E3">
         <v>0.1</v>
       </c>
       <c r="F3">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G3">
         <v>0.124864014</v>
@@ -4855,7 +4855,7 @@
         <v>23</v>
       </c>
       <c r="J3">
-        <v>1.2915726000000001E-2</v>
+        <v>1.300891E-2</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -4879,9 +4879,9 @@
         <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>3.4278537213322397E-5</v>
-      </c>
-      <c r="C4">
+        <v>4.1505171516653002E-5</v>
+      </c>
+      <c r="C4" s="2">
         <v>2.1151199999999999E-4</v>
       </c>
       <c r="E4">
@@ -4889,7 +4889,7 @@
         <v>0.2</v>
       </c>
       <c r="F4">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G4">
         <v>6.2440974000000003E-2</v>
@@ -4898,7 +4898,7 @@
         <v>22</v>
       </c>
       <c r="J4">
-        <v>1.2929293999999999E-2</v>
+        <v>1.3022478000000001E-2</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -4919,9 +4919,9 @@
         <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>3.6912398410799999E-5</v>
-      </c>
-      <c r="C5">
+        <v>4.4718498013500001E-5</v>
+      </c>
+      <c r="C5" s="2">
         <v>2.37762E-4</v>
       </c>
       <c r="E5">
@@ -4929,7 +4929,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="F5">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G5">
         <v>4.1633294000000001E-2</v>
@@ -4938,7 +4938,7 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <v>1.3480462E-2</v>
+        <v>1.3573646E-2</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -4956,9 +4956,9 @@
         <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>3.9579619066258097E-5</v>
-      </c>
-      <c r="C6">
+        <v>4.7973523832822601E-5</v>
+      </c>
+      <c r="C6" s="2">
         <v>2.65548E-4</v>
       </c>
       <c r="E6">
@@ -4966,7 +4966,7 @@
         <v>0.4</v>
       </c>
       <c r="F6">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G6">
         <v>3.1229454E-2</v>
@@ -4975,7 +4975,7 @@
         <v>16</v>
       </c>
       <c r="J6">
-        <v>1.397787E-2</v>
+        <v>1.4191118000000001E-2</v>
       </c>
       <c r="O6" t="s">
         <v>21</v>
@@ -4990,9 +4990,9 @@
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>4.2278441749462901E-5</v>
-      </c>
-      <c r="C7">
+        <v>5.12680521868286E-5</v>
+      </c>
+      <c r="C7" s="2">
         <v>2.9486999999999997E-4</v>
       </c>
       <c r="E7">
@@ -5000,7 +5000,7 @@
         <v>0.5</v>
       </c>
       <c r="F7">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G7">
         <v>2.498715E-2</v>
@@ -5018,9 +5018,9 @@
         <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>4.5007285005395198E-5</v>
-      </c>
-      <c r="C8">
+        <v>5.4600106256744098E-5</v>
+      </c>
+      <c r="C8" s="2">
         <v>3.2572800000000001E-4</v>
       </c>
       <c r="E8">
@@ -5028,7 +5028,7 @@
         <v>0.6</v>
       </c>
       <c r="F8">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G8">
         <v>2.0825613999999999E-2</v>
@@ -5046,9 +5046,9 @@
         <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>4.77647181737685E-5</v>
-      </c>
-      <c r="C9">
+        <v>5.7967897717210697E-5</v>
+      </c>
+      <c r="C9" s="2">
         <v>3.58122E-4</v>
       </c>
       <c r="E9">
@@ -5056,7 +5056,7 @@
         <v>0.7</v>
       </c>
       <c r="F9">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G9">
         <v>1.7853088285714299E-2</v>
@@ -5074,9 +5074,9 @@
         <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>5.05494407955535E-5</v>
-      </c>
-      <c r="C10">
+        <v>6.1369800994441905E-5</v>
+      </c>
+      <c r="C10" s="2">
         <v>3.9205199999999999E-4</v>
       </c>
       <c r="E10">
@@ -5084,7 +5084,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="F10">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G10">
         <v>1.5623694E-2</v>
@@ -5096,9 +5096,9 @@
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>5.3360265607200002E-5</v>
-      </c>
-      <c r="C11">
+        <v>6.4804332009000003E-5</v>
+      </c>
+      <c r="C11" s="2">
         <v>4.27518E-4</v>
       </c>
       <c r="E11">
@@ -5106,7 +5106,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="F11">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G11">
         <v>1.3889720666666701E-2</v>
@@ -5118,9 +5118,9 @@
         <v>25</v>
       </c>
       <c r="B12" s="2">
-        <v>5.6196104373657099E-5</v>
-      </c>
-      <c r="C12">
+        <v>6.82701304670714E-5</v>
+      </c>
+      <c r="C12" s="2">
         <v>4.6452E-4</v>
       </c>
       <c r="E12">
@@ -5128,7 +5128,7 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="F12">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G12">
         <v>1.2502542E-2</v>
@@ -5140,9 +5140,9 @@
         <v>26</v>
       </c>
       <c r="B13" s="2">
-        <v>5.9055955991414099E-5</v>
-      </c>
-      <c r="C13">
+        <v>7.1765944989267598E-5</v>
+      </c>
+      <c r="C13" s="2">
         <v>5.0305800000000002E-4</v>
       </c>
       <c r="E13">
@@ -5150,7 +5150,7 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="F13">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G13">
         <v>1.1367577636363599E-2</v>
@@ -5162,9 +5162,9 @@
         <v>27</v>
       </c>
       <c r="B14" s="2">
-        <v>6.1938896424300094E-5</v>
-      </c>
-      <c r="C14">
+        <v>7.5290620530375096E-5</v>
+      </c>
+      <c r="C14" s="2">
         <v>5.4313199999999999E-4</v>
       </c>
       <c r="E14">
@@ -5172,7 +5172,7 @@
         <v>1.2</v>
       </c>
       <c r="F14">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G14">
         <v>1.0421774E-2</v>
@@ -5184,9 +5184,9 @@
         <v>28</v>
       </c>
       <c r="B15" s="2">
-        <v>6.4844070132126998E-5</v>
-      </c>
-      <c r="C15">
+        <v>7.8843087665158706E-5</v>
+      </c>
+      <c r="C15" s="2">
         <v>5.8474199999999997E-4</v>
       </c>
       <c r="E15">
@@ -5194,7 +5194,7 @@
         <v>1.3</v>
       </c>
       <c r="F15">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G15">
         <v>9.6214786153846193E-3</v>
@@ -5206,9 +5206,9 @@
         <v>29</v>
       </c>
       <c r="B16" s="2">
-        <v>6.7770682725218993E-5</v>
-      </c>
-      <c r="C16">
+        <v>8.2422353406523804E-5</v>
+      </c>
+      <c r="C16" s="2">
         <v>6.2788799999999995E-4</v>
       </c>
       <c r="E16">
@@ -5216,7 +5216,7 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="F16">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G16">
         <v>8.9355111428571395E-3</v>
@@ -5228,9 +5228,9 @@
         <v>30</v>
       </c>
       <c r="B17" s="2">
-        <v>7.0717994633194296E-5</v>
-      </c>
-      <c r="C17">
+        <v>8.6027493291492894E-5</v>
+      </c>
+      <c r="C17" s="2">
         <v>6.7257000000000005E-4</v>
       </c>
       <c r="E17">
@@ -5238,7 +5238,7 @@
         <v>1.5000000000000002</v>
       </c>
       <c r="F17">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G17">
         <v>8.3410059999999998E-3</v>
@@ -5250,9 +5250,9 @@
         <v>31</v>
       </c>
       <c r="B18" s="2">
-        <v>7.3685315618749204E-5</v>
-      </c>
-      <c r="C18">
+        <v>8.9657644523436397E-5</v>
+      </c>
+      <c r="C18" s="2">
         <v>7.1878800000000004E-4</v>
       </c>
       <c r="E18">
@@ -5260,7 +5260,7 @@
         <v>1.6000000000000003</v>
       </c>
       <c r="F18">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G18">
         <v>7.8208140000000006E-3</v>
@@ -5272,9 +5272,9 @@
         <v>32</v>
       </c>
       <c r="B19" s="2">
-        <v>7.6672E-5</v>
-      </c>
-      <c r="C19">
+        <v>9.3312000000000004E-5</v>
+      </c>
+      <c r="C19" s="2">
         <v>7.6654200000000005E-4</v>
       </c>
       <c r="E19">
@@ -5282,7 +5282,7 @@
         <v>1.7000000000000004</v>
       </c>
       <c r="F19">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G19">
         <v>7.3618210588235304E-3</v>
@@ -5294,9 +5294,9 @@
         <v>33</v>
       </c>
       <c r="B20" s="2">
-        <v>7.9677442470552903E-5</v>
-      </c>
-      <c r="C20">
+        <v>9.6989803088191098E-5</v>
+      </c>
+      <c r="C20" s="2">
         <v>8.1583199999999995E-4</v>
       </c>
       <c r="E20">
@@ -5304,7 +5304,7 @@
         <v>1.8000000000000005</v>
       </c>
       <c r="F20">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G20">
         <v>6.9538273333333298E-3</v>
@@ -5316,7 +5316,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>8.2701074426644799E-5</v>
+        <v>1.00690343033306E-4</v>
       </c>
       <c r="C21">
         <v>8.6665799999999997E-4</v>
@@ -5326,7 +5326,7 @@
         <v>1.9000000000000006</v>
       </c>
       <c r="F21">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G21">
         <v>6.5887803157894699E-3</v>
@@ -5338,7 +5338,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2">
-        <v>8.5742360726718698E-5</v>
+        <v>1.0441295090839801E-4</v>
       </c>
       <c r="C22">
         <v>9.1901999999999999E-4</v>
@@ -5348,7 +5348,7 @@
         <v>2.0000000000000004</v>
       </c>
       <c r="F22">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G22">
         <v>6.2602379999999996E-3</v>
@@ -5360,7 +5360,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2">
-        <v>8.8800796821599998E-5</v>
+        <v>1.08156996027E-4</v>
       </c>
       <c r="C23">
         <v>9.7291800000000002E-4</v>
@@ -5370,7 +5370,7 @@
         <v>2.1000000000000005</v>
       </c>
       <c r="F23">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G23">
         <v>5.9629854285714297E-3</v>
@@ -5382,7 +5382,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2">
-        <v>9.1875906203760805E-5</v>
+        <v>1.11921882754701E-4</v>
       </c>
       <c r="C24">
         <v>1.028352E-3</v>
@@ -5392,7 +5392,7 @@
         <v>2.2000000000000006</v>
       </c>
       <c r="F24">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G24">
         <v>5.6927558181818199E-3</v>
@@ -5404,7 +5404,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2">
-        <v>9.4967238132516202E-5</v>
+        <v>1.15707047665645E-4</v>
       </c>
       <c r="C25">
         <v>1.0853219999999999E-3</v>
@@ -5414,7 +5414,7 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="F25">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G25">
         <v>5.4460244347826099E-3</v>
@@ -5426,7 +5426,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2">
-        <v>9.8074365598821097E-5</v>
+        <v>1.19511956998526E-4</v>
       </c>
       <c r="C26">
         <v>1.1438279999999999E-3</v>
@@ -5436,7 +5436,7 @@
         <v>2.4000000000000008</v>
       </c>
       <c r="F26">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G26">
         <v>5.2198540000000003E-3</v>
@@ -5448,7 +5448,7 @@
         <v>40</v>
       </c>
       <c r="B27">
-        <v>1.0119688349892599E-4</v>
+        <v>1.23336104373657E-4</v>
       </c>
       <c r="C27">
         <v>1.2038699999999999E-3</v>
@@ -5458,7 +5458,7 @@
         <v>2.5000000000000009</v>
       </c>
       <c r="F27">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G27">
         <v>5.0117772000000003E-3</v>
@@ -5470,7 +5470,7 @@
         <v>41</v>
       </c>
       <c r="B28">
-        <v>1.0433440699076599E-4</v>
+        <v>1.2717900873845801E-4</v>
       </c>
       <c r="C28">
         <v>1.265448E-3</v>
@@ -5480,7 +5480,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="F28">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G28">
         <v>4.81970630769231E-3</v>
@@ -5492,7 +5492,7 @@
         <v>42</v>
       </c>
       <c r="B29">
-        <v>1.07486570010791E-4</v>
+        <v>1.31040212513488E-4</v>
       </c>
       <c r="C29">
         <v>1.3285619999999999E-3</v>
@@ -5502,7 +5502,7 @@
         <v>2.7000000000000011</v>
       </c>
       <c r="F29">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G29">
         <v>4.6418628888888896E-3</v>
@@ -5514,7 +5514,7 @@
         <v>43</v>
       </c>
       <c r="B30">
-        <v>1.10653023932111E-4</v>
+        <v>1.34919279915139E-4</v>
       </c>
       <c r="C30">
         <v>1.393212E-3</v>
@@ -5524,7 +5524,7 @@
         <v>2.8000000000000012</v>
       </c>
       <c r="F30">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G30">
         <v>4.4767225714285701E-3</v>
@@ -5536,7 +5536,7 @@
         <v>44</v>
       </c>
       <c r="B31">
-        <v>1.1383343634753699E-4</v>
+        <v>1.38815795434421E-4</v>
       </c>
       <c r="C31">
         <v>1.459398E-3</v>
@@ -5546,7 +5546,7 @@
         <v>2.9000000000000012</v>
       </c>
       <c r="F31">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G31">
         <v>4.3229712413793099E-3</v>
@@ -5558,7 +5558,7 @@
         <v>45</v>
       </c>
       <c r="B32">
-        <v>1.17027489963292E-4</v>
+        <v>1.42729362454114E-4</v>
       </c>
       <c r="C32">
         <v>1.5271200000000001E-3</v>
@@ -5568,7 +5568,7 @@
         <v>3.0000000000000013</v>
       </c>
       <c r="F32">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="G32">
         <v>4.1794700000000002E-3</v>
@@ -5580,7 +5580,7 @@
         <v>46</v>
       </c>
       <c r="B33">
-        <v>1.20234881591107E-4</v>
+        <v>1.46659601988884E-4</v>
       </c>
       <c r="C33">
         <v>1.5963780000000001E-3</v>
@@ -5592,7 +5592,7 @@
         <v>47</v>
       </c>
       <c r="B34">
-        <v>1.23455321228001E-4</v>
+        <v>1.5060615153500201E-4</v>
       </c>
       <c r="C34">
         <v>1.667172E-3</v>
@@ -5604,7 +5604,7 @@
         <v>48</v>
       </c>
       <c r="B35">
-        <v>1.2668853121439999E-4</v>
+        <v>1.5456866401800001E-4</v>
       </c>
       <c r="C35">
         <v>1.739502E-3</v>
@@ -5616,7 +5616,7 @@
         <v>49</v>
       </c>
       <c r="B36">
-        <v>1.29934245462444E-4</v>
+        <v>1.58546806828056E-4</v>
       </c>
       <c r="C36">
         <v>1.8133680000000001E-3</v>
@@ -5628,7 +5628,7 @@
         <v>50</v>
       </c>
       <c r="B37">
-        <v>1.33192208747314E-4</v>
+        <v>1.62540260934143E-4</v>
       </c>
       <c r="C37">
         <v>1.8887699999999999E-3</v>
@@ -5640,7 +5640,7 @@
         <v>51</v>
       </c>
       <c r="B38">
-        <v>1.36462176055267E-4</v>
+        <v>1.6654872006908401E-4</v>
       </c>
       <c r="C38">
         <v>1.965708E-3</v>
@@ -5652,7 +5652,7 @@
         <v>52</v>
       </c>
       <c r="B39">
-        <v>1.3974391198282799E-4</v>
+        <v>1.7057188997853499E-4</v>
       </c>
       <c r="C39">
         <v>2.0441819999999999E-3</v>
@@ -5664,7 +5664,7 @@
         <v>53</v>
       </c>
       <c r="B40">
-        <v>1.43037190182209E-4</v>
+        <v>1.7460948772776201E-4</v>
       </c>
       <c r="C40">
         <v>2.124192E-3</v>
@@ -5676,7 +5676,7 @@
         <v>54</v>
       </c>
       <c r="B41">
-        <v>1.4634179284860001E-4</v>
+        <v>1.7866124106074999E-4</v>
       </c>
       <c r="C41">
         <v>2.2057380000000001E-3</v>
@@ -5688,7 +5688,7 @@
         <v>55</v>
       </c>
       <c r="B42">
-        <v>1.4965751024544399E-4</v>
+        <v>1.8272688780680501E-4</v>
       </c>
       <c r="C42">
         <v>2.28882E-3</v>
@@ -5700,7 +5700,7 @@
         <v>56</v>
       </c>
       <c r="B43">
-        <v>1.5298414026425401E-4</v>
+        <v>1.86806175330317E-4</v>
       </c>
       <c r="C43">
         <v>2.3734379999999998E-3</v>
@@ -5712,7 +5712,7 @@
         <v>57</v>
       </c>
       <c r="B44">
-        <v>1.5632148801587401E-4</v>
+        <v>1.9089886001984299E-4</v>
       </c>
       <c r="C44">
         <v>2.459592E-3</v>
@@ -5724,7 +5724,7 @@
         <v>58</v>
       </c>
       <c r="B45">
-        <v>1.5966936545043801E-4</v>
+        <v>1.9500470681304801E-4</v>
       </c>
       <c r="C45">
         <v>2.5472820000000001E-3</v>
@@ -5736,7 +5736,7 @@
         <v>59</v>
       </c>
       <c r="B46">
-        <v>1.6302759100353701E-4</v>
+        <v>1.9912348875442099E-4</v>
       </c>
       <c r="C46">
         <v>2.6365080000000001E-3</v>
@@ -5748,7 +5748,7 @@
         <v>60</v>
       </c>
       <c r="B47">
-        <v>1.66395989266389E-4</v>
+        <v>2.03254986582986E-4</v>
       </c>
       <c r="C47">
         <v>2.72727E-3</v>
@@ -5760,7 +5760,7 @@
         <v>61</v>
       </c>
       <c r="B48">
-        <v>1.6977439067799601E-4</v>
+        <v>2.0739898834749499E-4</v>
       </c>
       <c r="C48">
         <v>2.8195680000000002E-3</v>
@@ -5772,7 +5772,7 @@
         <v>62</v>
       </c>
       <c r="B49">
-        <v>1.7316263123749799E-4</v>
+        <v>2.1155528904687299E-4</v>
       </c>
       <c r="C49">
         <v>2.9134019999999998E-3</v>
@@ -5784,7 +5784,7 @@
         <v>63</v>
       </c>
       <c r="B50">
-        <v>1.7656055223508601E-4</v>
+        <v>2.1572369029385701E-4</v>
       </c>
       <c r="C50">
         <v>3.0087719999999998E-3</v>
@@ -5796,7 +5796,7 @@
         <v>64</v>
       </c>
       <c r="B51">
-        <v>1.79968E-4</v>
+        <v>2.1990399999999999E-4</v>
       </c>
       <c r="C51">
         <v>3.1056780000000002E-3</v>
@@ -5808,7 +5808,7 @@
         <v>65</v>
       </c>
       <c r="B52">
-        <v>1.8338482566428901E-4</v>
+        <v>2.2409603208036201E-4</v>
       </c>
       <c r="C52">
         <v>3.20412E-3</v>
@@ -5820,7 +5820,7 @@
         <v>66</v>
       </c>
       <c r="B53">
-        <v>1.86810884941106E-4</v>
+        <v>2.2829960617638199E-4</v>
       </c>
       <c r="C53">
         <v>3.3040980000000001E-3</v>
@@ -5832,7 +5832,7 @@
         <v>67</v>
       </c>
       <c r="B54">
-        <v>1.9024603791643901E-4</v>
+        <v>2.3251454739554899E-4</v>
       </c>
       <c r="C54">
         <v>3.4056120000000001E-3</v>
@@ -5844,7 +5844,7 @@
         <v>68</v>
       </c>
       <c r="B55">
-        <v>1.9369014885328999E-4</v>
+        <v>2.3674068606661201E-4</v>
       </c>
       <c r="C55">
         <v>3.5086620000000001E-3</v>
@@ -5856,7 +5856,7 @@
         <v>69</v>
       </c>
       <c r="B56">
-        <v>1.97143086007361E-4</v>
+        <v>2.4097785750920101E-4</v>
       </c>
       <c r="C56">
         <v>3.6132479999999999E-3</v>
@@ -5868,7 +5868,7 @@
         <v>70</v>
       </c>
       <c r="B57">
-        <v>2.0060472145343701E-4</v>
+        <v>2.4522590181679698E-4</v>
       </c>
       <c r="C57">
         <v>3.7193700000000001E-3</v>
@@ -5880,7 +5880,7 @@
         <v>71</v>
       </c>
       <c r="B58">
-        <v>2.0407493092168999E-4</v>
+        <v>2.4948466365211299E-4</v>
       </c>
       <c r="C58">
         <v>3.8270280000000001E-3</v>
@@ -5892,7 +5892,7 @@
         <v>72</v>
       </c>
       <c r="B59">
-        <v>2.075535936432E-4</v>
+        <v>2.5375399205399999E-4</v>
       </c>
       <c r="C59">
         <v>3.9362219999999996E-3</v>
@@ -5904,7 +5904,7 @@
         <v>73</v>
       </c>
       <c r="B60">
-        <v>2.11040592204068E-4</v>
+        <v>2.5803374025508598E-4</v>
       </c>
       <c r="C60">
         <v>4.0469520000000004E-3</v>
@@ -5916,7 +5916,7 @@
         <v>74</v>
       </c>
       <c r="B61">
-        <v>2.14535812407522E-4</v>
+        <v>2.6232376550940198E-4</v>
       </c>
       <c r="C61">
         <v>4.1592180000000001E-3</v>
@@ -5928,7 +5928,7 @@
         <v>75</v>
       </c>
       <c r="B62">
-        <v>2.1803914314347101E-4</v>
+        <v>2.6662392892933901E-4</v>
       </c>
       <c r="C62">
         <v>4.2730199999999998E-3</v>
@@ -5940,7 +5940,7 @@
         <v>76</v>
       </c>
       <c r="B63">
-        <v>2.2155047626503199E-4</v>
+        <v>2.70934095331291E-4</v>
       </c>
       <c r="C63">
         <v>4.3883580000000002E-3</v>
@@ -5952,7 +5952,7 @@
         <v>77</v>
       </c>
       <c r="B64">
-        <v>2.2506970647153901E-4</v>
+        <v>2.7525413308942398E-4</v>
       </c>
       <c r="C64">
         <v>4.5052319999999996E-3</v>
@@ -5964,7 +5964,7 @@
         <v>78</v>
       </c>
       <c r="B65">
-        <v>2.28596731197642E-4</v>
+        <v>2.7958391399705298E-4</v>
       </c>
       <c r="C65">
         <v>4.6236419999999999E-3</v>
@@ -5976,7 +5976,7 @@
         <v>79</v>
       </c>
       <c r="B66">
-        <v>2.3213145050809199E-4</v>
+        <v>2.83923313135115E-4</v>
       </c>
       <c r="C66">
         <v>4.743588E-3</v>
@@ -5988,7 +5988,7 @@
         <v>80</v>
       </c>
       <c r="B67">
-        <v>2.3567376699785099E-4</v>
+        <v>2.8827220874731398E-4</v>
       </c>
       <c r="C67">
         <v>4.86507E-3</v>
@@ -6000,7 +6000,7 @@
         <v>81</v>
       </c>
       <c r="B68">
-        <v>2.3922358569719999E-4</v>
+        <v>2.926304821215E-4</v>
       </c>
       <c r="C68">
         <v>4.9880879999999999E-3</v>
@@ -6012,7 +6012,7 @@
         <v>82</v>
       </c>
       <c r="B69">
-        <v>2.42780813981532E-4</v>
+        <v>2.9699801747691502E-4</v>
       </c>
       <c r="C69">
         <v>5.1126419999999997E-3</v>
@@ -6024,7 +6024,7 @@
         <v>83</v>
       </c>
       <c r="B70">
-        <v>2.4634536148554698E-4</v>
+        <v>3.0137470185693301E-4</v>
       </c>
       <c r="C70">
         <v>5.2387320000000003E-3</v>
@@ -6036,7 +6036,7 @@
         <v>84</v>
       </c>
       <c r="B71">
-        <v>2.4991714002158103E-4</v>
+        <v>3.0576042502697599E-4</v>
       </c>
       <c r="C71">
         <v>5.3663579999999999E-3</v>
@@ -6048,7 +6048,7 @@
         <v>85</v>
       </c>
       <c r="B72">
-        <v>2.5349606350182899E-4</v>
+        <v>3.10155079377286E-4</v>
       </c>
       <c r="C72">
         <v>5.4955200000000003E-3</v>
@@ -6060,7 +6060,7 @@
         <v>86</v>
       </c>
       <c r="B73">
-        <v>2.5708204786422197E-4</v>
+        <v>3.1455855983027799E-4</v>
       </c>
       <c r="C73">
         <v>5.6262179999999997E-3</v>
@@ -6072,7 +6072,7 @@
         <v>87</v>
       </c>
       <c r="B74">
-        <v>2.6067501100175699E-4</v>
+        <v>3.18970763752196E-4</v>
       </c>
       <c r="C74">
         <v>5.7584519999999998E-3</v>
@@ -6084,7 +6084,7 @@
         <v>88</v>
       </c>
       <c r="B75">
-        <v>2.6427487269507403E-4</v>
+        <v>3.2339159086884302E-4</v>
       </c>
       <c r="C75">
         <v>5.8922219999999999E-3</v>
@@ -6096,7 +6096,7 @@
         <v>89</v>
       </c>
       <c r="B76">
-        <v>2.6788155454810002E-4</v>
+        <v>3.2782094318512499E-4</v>
       </c>
       <c r="C76">
         <v>6.0275279999999999E-3</v>
@@ -6108,7 +6108,7 @@
         <v>90</v>
       </c>
       <c r="B77">
-        <v>2.7149497992658302E-4</v>
+        <v>3.3225872490822897E-4</v>
       </c>
       <c r="C77">
         <v>6.1643699999999997E-3</v>
@@ -6120,7 +6120,7 @@
         <v>91</v>
       </c>
       <c r="B78">
-        <v>2.7511507389936198E-4</v>
+        <v>3.3670484237420198E-4</v>
       </c>
       <c r="C78">
         <v>6.3027480000000004E-3</v>
@@ -6132,7 +6132,7 @@
         <v>92</v>
       </c>
       <c r="B79">
-        <v>2.7874176318221398E-4</v>
+        <v>3.4115920397776697E-4</v>
       </c>
       <c r="C79">
         <v>6.442662E-3</v>
@@ -6144,7 +6144,7 @@
         <v>93</v>
       </c>
       <c r="B80">
-        <v>2.8237497608414797E-4</v>
+        <v>3.4562172010518398E-4</v>
       </c>
       <c r="C80">
         <v>6.5841119999999996E-3</v>
@@ -6156,7 +6156,7 @@
         <v>94</v>
       </c>
       <c r="B81">
-        <v>2.8601464245600199E-4</v>
+        <v>3.5009230307000299E-4</v>
       </c>
       <c r="C81">
         <v>6.7270979999999999E-3</v>
@@ -6168,7 +6168,7 @@
         <v>95</v>
       </c>
       <c r="B82">
-        <v>2.8966069364123903E-4</v>
+        <v>3.5457086705154901E-4</v>
       </c>
       <c r="C82">
         <v>6.8716200000000002E-3</v>
@@ -6180,7 +6180,7 @@
         <v>96</v>
       </c>
       <c r="B83">
-        <v>2.9331306242879999E-4</v>
+        <v>3.5905732803599998E-4</v>
       </c>
       <c r="C83">
         <v>7.0176780000000003E-3</v>
@@ -6192,7 +6192,7 @@
         <v>97</v>
       </c>
       <c r="B84">
-        <v>2.9697168300793503E-4</v>
+        <v>3.63551603759919E-4</v>
       </c>
       <c r="C84">
         <v>7.1652720000000003E-3</v>
@@ -6204,7 +6204,7 @@
         <v>98</v>
       </c>
       <c r="B85">
-        <v>3.0063649092488902E-4</v>
+        <v>3.6805361365611097E-4</v>
       </c>
       <c r="C85">
         <v>7.3144020000000002E-3</v>
@@ -6216,7 +6216,7 @@
         <v>99</v>
       </c>
       <c r="B86">
-        <v>3.0430742304135902E-4</v>
+        <v>3.72563278801698E-4</v>
       </c>
       <c r="C86">
         <v>7.4650680000000001E-3</v>
@@ -6228,7 +6228,7 @@
         <v>100</v>
       </c>
       <c r="B87">
-        <v>3.0798441749462901E-4</v>
+        <v>3.7708052186828601E-4</v>
       </c>
       <c r="C87">
         <v>7.6172699999999998E-3</v>
@@ -6240,7 +6240,7 @@
         <v>101</v>
       </c>
       <c r="B88">
-        <v>3.1166741365929899E-4</v>
+        <v>3.8160526707412402E-4</v>
       </c>
       <c r="C88">
         <v>7.7710080000000003E-3</v>
@@ -6252,7 +6252,7 @@
         <v>102</v>
       </c>
       <c r="B89">
-        <v>3.1535635211053402E-4</v>
+        <v>3.8613744013816798E-4</v>
       </c>
       <c r="C89">
         <v>7.9262819999999998E-3</v>
@@ -6264,7 +6264,7 @@
         <v>103</v>
       </c>
       <c r="B90">
-        <v>3.1905117458874699E-4</v>
+        <v>3.9067696823593301E-4</v>
       </c>
       <c r="C90">
         <v>8.0830920000000001E-3</v>
@@ -6276,7 +6276,7 @@
         <v>104</v>
       </c>
       <c r="B91">
-        <v>3.2275182396565599E-4</v>
+        <v>3.9522377995707001E-4</v>
       </c>
       <c r="C91">
         <v>8.2414380000000002E-3</v>
@@ -6288,7 +6288,7 @@
         <v>105</v>
       </c>
       <c r="B92">
-        <v>3.2645824421165601E-4</v>
+        <v>3.9977780526457001E-4</v>
       </c>
       <c r="C92">
         <v>8.4013200000000003E-3</v>
@@ -6300,7 +6300,7 @@
         <v>106</v>
       </c>
       <c r="B93">
-        <v>3.3017038036441902E-4</v>
+        <v>4.0433897545552399E-4</v>
       </c>
       <c r="C93">
         <v>8.5627380000000003E-3</v>
@@ -6312,7 +6312,7 @@
         <v>107</v>
       </c>
       <c r="B94">
-        <v>3.3388817849868801E-4</v>
+        <v>4.0890722312335998E-4</v>
       </c>
       <c r="C94">
         <v>8.7256920000000002E-3</v>
@@ -6324,7 +6324,7 @@
         <v>108</v>
       </c>
       <c r="B95">
-        <v>3.3761158569720003E-4</v>
+        <v>4.1348248212150001E-4</v>
       </c>
       <c r="C95">
         <v>8.8901819999999999E-3</v>
@@ -6336,7 +6336,7 @@
         <v>109</v>
       </c>
       <c r="B96">
-        <v>3.4134055002268498E-4</v>
+        <v>4.1806468752835603E-4</v>
       </c>
       <c r="C96">
         <v>9.0562079999999996E-3</v>
@@ -6348,7 +6348,7 @@
         <v>110</v>
       </c>
       <c r="B97">
-        <v>3.4507502049088798E-4</v>
+        <v>4.2265377561361098E-4</v>
       </c>
       <c r="C97">
         <v>9.2237699999999992E-3</v>
@@ -6360,7 +6360,7 @@
         <v>111</v>
       </c>
       <c r="B98">
-        <v>3.4881494704458303E-4</v>
+        <v>4.2724968380572801E-4</v>
       </c>
       <c r="C98">
         <v>9.3928680000000004E-3</v>
@@ -6372,7 +6372,7 @@
         <v>112</v>
       </c>
       <c r="B99">
-        <v>3.52560280528508E-4</v>
+        <v>4.3185235066063501E-4</v>
       </c>
       <c r="C99">
         <v>9.5635019999999998E-3</v>
@@ -6384,7 +6384,7 @@
         <v>113</v>
       </c>
       <c r="B100">
-        <v>3.56310972665213E-4</v>
+        <v>4.3646171583151702E-4</v>
       </c>
       <c r="C100">
         <v>9.7356720000000008E-3</v>
@@ -6396,7 +6396,7 @@
         <v>114</v>
       </c>
       <c r="B101">
-        <v>3.60066976031749E-4</v>
+        <v>4.4107772003968598E-4</v>
       </c>
       <c r="C101">
         <v>9.9093779999999999E-3</v>
@@ -6408,7 +6408,7 @@
         <v>115</v>
       </c>
       <c r="B102">
-        <v>3.6382824403717899E-4</v>
+        <v>4.4570030504647402E-4</v>
       </c>
       <c r="C102">
         <v>1.0084620000000001E-2</v>
@@ -6420,7 +6420,7 @@
         <v>116</v>
       </c>
       <c r="B103">
-        <v>3.6759473090087601E-4</v>
+        <v>4.5032941362609498E-4</v>
       </c>
       <c r="C103">
         <v>1.0261398E-2</v>
@@ -6432,7 +6432,7 @@
         <v>117</v>
       </c>
       <c r="B104">
-        <v>3.7136639163156402E-4</v>
+        <v>4.5496498953945399E-4</v>
       </c>
       <c r="C104">
         <v>1.0439712E-2</v>
@@ -6444,7 +6444,7 @@
         <v>118</v>
       </c>
       <c r="B105">
-        <v>3.75143182007074E-4</v>
+        <v>4.5960697750884301E-4</v>
       </c>
       <c r="C105">
         <v>1.0619562000000001E-2</v>
@@ -6456,7 +6456,7 @@
         <v>119</v>
       </c>
       <c r="B106">
-        <v>3.78925058554796E-4</v>
+        <v>4.6425532319349601E-4</v>
       </c>
       <c r="C106">
         <v>1.0800947999999999E-2</v>
@@ -6468,7 +6468,7 @@
         <v>120</v>
       </c>
       <c r="B107">
-        <v>3.8271197853277699E-4</v>
+        <v>4.6890997316597201E-4</v>
       </c>
       <c r="C107">
         <v>1.098387E-2</v>
@@ -6480,7 +6480,7 @@
         <v>121</v>
       </c>
       <c r="B108">
-        <v>3.8650389991145401E-4</v>
+        <v>4.7357087488931798E-4</v>
       </c>
       <c r="C108">
         <v>1.1168328E-2</v>
@@ -6492,7 +6492,7 @@
         <v>122</v>
       </c>
       <c r="B109">
-        <v>3.9030078135599201E-4</v>
+        <v>4.7823797669498998E-4</v>
       </c>
       <c r="C109">
         <v>1.1354322E-2</v>
@@ -6504,7 +6504,7 @@
         <v>123</v>
       </c>
       <c r="B110">
-        <v>3.9410258220919802E-4</v>
+        <v>4.8291122776149801E-4</v>
       </c>
       <c r="C110">
         <v>1.1541852E-2</v>
@@ -6516,7 +6516,7 @@
         <v>124</v>
       </c>
       <c r="B111">
-        <v>3.9790926247499698E-4</v>
+        <v>4.8759057809374598E-4</v>
       </c>
       <c r="C111">
         <v>1.1730918E-2</v>
@@ -6528,203 +6528,199 @@
         <v>125</v>
       </c>
       <c r="B112">
-        <v>4.0172078280242899E-4</v>
+        <v>4.92275978503036E-4</v>
       </c>
       <c r="C112">
         <v>1.192152E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:3">
       <c r="A113">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B113">
-        <v>4.0553710447017202E-4</v>
+        <v>4.9696738058771495E-4</v>
       </c>
       <c r="C113">
         <v>1.2113657999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:3">
       <c r="A114">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="B114">
-        <v>4.09358189371547E-4</v>
+        <v>5.0166473671443401E-4</v>
       </c>
       <c r="C114">
         <v>1.2307332000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:3">
       <c r="A115">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B115">
-        <v>4.1318399999999998E-4</v>
+        <v>5.0636799999999999E-4</v>
       </c>
       <c r="C115">
         <v>1.2502542E-2</v>
       </c>
-      <c r="D115">
-        <f>C115+B115</f>
-        <v>1.2915726000000001E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B116">
-        <v>4.1701449943503402E-4</v>
+        <v>5.1107712429379203E-4</v>
       </c>
       <c r="C116">
         <v>1.2699288E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:3">
       <c r="A117">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B117">
-        <v>4.2084965132857901E-4</v>
+        <v>5.1579206416072399E-4</v>
       </c>
       <c r="C117">
         <v>1.2897570000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:3">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B118">
-        <v>4.2468941989178498E-4</v>
+        <v>5.2051277486473097E-4</v>
       </c>
       <c r="C118">
         <v>1.3097388E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:3">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B119">
-        <v>4.28533769882212E-4</v>
+        <v>5.25239212352764E-4</v>
       </c>
       <c r="C119">
         <v>1.3298742000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:3">
       <c r="A120">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B120">
-        <v>4.3238266659140998E-4</v>
+        <v>5.2997133323926199E-4</v>
       </c>
       <c r="C120">
         <v>1.3501632E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:3">
       <c r="A121">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B121">
-        <v>4.3623607583287801E-4</v>
+        <v>5.3470909479109801E-4</v>
       </c>
       <c r="C121">
         <v>1.3706058E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:3">
       <c r="A122">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B122">
-        <v>4.4009396393037499E-4</v>
+        <v>5.3945245491296802E-4</v>
       </c>
       <c r="C122">
         <v>1.3912020000000001E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:3">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B123">
-        <v>4.4395629770657902E-4</v>
+        <v>5.4420137213322399E-4</v>
       </c>
       <c r="C123">
         <v>1.4119517999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:3">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B124">
-        <v>4.4782304447208598E-4</v>
+        <v>5.4895580559010803E-4</v>
       </c>
       <c r="C124">
         <v>1.4328552E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:3">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B125">
-        <v>4.5169417201472098E-4</v>
+        <v>5.53715715018402E-4</v>
       </c>
       <c r="C125">
         <v>1.4539122E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:3">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B126">
-        <v>4.55569648589164E-4</v>
+        <v>5.5848106073645503E-4</v>
       </c>
       <c r="C126">
         <v>1.4751228E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:3">
       <c r="A127">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B127">
-        <v>4.5944944290687498E-4</v>
+        <v>5.6325180363359399E-4</v>
       </c>
       <c r="C127">
         <v>1.496487E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:3">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B128">
-        <v>4.6333352412630401E-4</v>
+        <v>5.6802790515787999E-4</v>
       </c>
       <c r="C128">
         <v>1.5180048E-2</v>
@@ -6736,7 +6732,7 @@
         <v>142</v>
       </c>
       <c r="B129">
-        <v>4.6722186184338098E-4</v>
+        <v>5.7280932730422601E-4</v>
       </c>
       <c r="C129">
         <v>1.5396762E-2</v>
@@ -6748,7 +6744,7 @@
         <v>143</v>
       </c>
       <c r="B130">
-        <v>4.71114426082273E-4</v>
+        <v>5.7759603260284099E-4</v>
       </c>
       <c r="C130">
         <v>1.5615011999999999E-2</v>
@@ -6760,7 +6756,7 @@
         <v>144</v>
       </c>
       <c r="B131">
-        <v>4.7501118728639999E-4</v>
+        <v>5.8238798410800003E-4</v>
       </c>
       <c r="C131">
         <v>1.5834798000000001E-2</v>
@@ -6772,7 +6768,7 @@
         <v>145</v>
       </c>
       <c r="B132">
-        <v>4.7891211630970098E-4</v>
+        <v>5.87185145387126E-4</v>
       </c>
       <c r="C132">
         <v>1.605612E-2</v>
@@ -6784,7 +6780,7 @@
         <v>146</v>
       </c>
       <c r="B133">
-        <v>4.82817184408137E-4</v>
+        <v>5.9198748051017102E-4</v>
       </c>
       <c r="C133">
         <v>1.6278978E-2</v>
@@ -6796,7 +6792,7 @@
         <v>147</v>
       </c>
       <c r="B134">
-        <v>4.8672636323143298E-4</v>
+        <v>5.96794954039292E-4</v>
       </c>
       <c r="C134">
         <v>1.6503371999999999E-2</v>
@@ -6808,7 +6804,7 @@
         <v>148</v>
       </c>
       <c r="B135">
-        <v>4.9063962481504298E-4</v>
+        <v>6.01607531018804E-4</v>
       </c>
       <c r="C135">
         <v>1.6729302000000001E-2</v>
@@ -6820,7 +6816,7 @@
         <v>149</v>
       </c>
       <c r="B136">
-        <v>4.94556941572327E-4</v>
+        <v>6.0642517696540799E-4</v>
       </c>
       <c r="C136">
         <v>1.6956768000000001E-2</v>
@@ -6832,7 +6828,7 @@
         <v>150</v>
       </c>
       <c r="B137">
-        <v>4.9847828628694305E-4</v>
+        <v>6.1124785785867904E-4</v>
       </c>
       <c r="C137">
         <v>1.718577E-2</v>
@@ -6844,7 +6840,7 @@
         <v>151</v>
       </c>
       <c r="B138">
-        <v>5.0240363210544395E-4</v>
+        <v>6.1607554013180495E-4</v>
       </c>
       <c r="C138">
         <v>1.7416307999999998E-2</v>
@@ -6856,7 +6852,7 @@
         <v>152</v>
       </c>
       <c r="B139">
-        <v>5.0633295253006499E-4</v>
+        <v>6.2090819066258098E-4</v>
       </c>
       <c r="C139">
         <v>1.7648382000000001E-2</v>
@@ -6868,7 +6864,7 @@
         <v>153</v>
       </c>
       <c r="B140">
-        <v>5.1026622141170201E-4</v>
+        <v>6.2574577676462705E-4</v>
       </c>
       <c r="C140">
         <v>1.7881991999999999E-2</v>
@@ -6880,7 +6876,7 @@
         <v>154</v>
       </c>
       <c r="B141">
-        <v>5.1420341294307803E-4</v>
+        <v>6.3058826617884802E-4</v>
       </c>
       <c r="C141">
         <v>1.8117138000000001E-2</v>
@@ -6892,7 +6888,7 @@
         <v>155</v>
       </c>
       <c r="B142">
-        <v>5.1814450165208305E-4</v>
+        <v>6.35435627065104E-4</v>
       </c>
       <c r="C142">
         <v>1.835382E-2</v>
@@ -6904,7 +6900,7 @@
         <v>156</v>
       </c>
       <c r="B143">
-        <v>5.2208946239528503E-4</v>
+        <v>6.4028782799410602E-4</v>
       </c>
       <c r="C143">
         <v>1.8592038000000002E-2</v>
@@ -6916,7 +6912,7 @@
         <v>157</v>
       </c>
       <c r="B144">
-        <v>5.2603827035160996E-4</v>
+        <v>6.45144837939512E-4</v>
       </c>
       <c r="C144">
         <v>1.8831792E-2</v>
@@ -6928,7 +6924,7 @@
         <v>158</v>
       </c>
       <c r="B145">
-        <v>5.2999090101618499E-4</v>
+        <v>6.5000662627023105E-4</v>
       </c>
       <c r="C145">
         <v>1.9073082000000002E-2</v>
@@ -6940,7 +6936,7 @@
         <v>159</v>
       </c>
       <c r="B146">
-        <v>5.3394733019432805E-4</v>
+        <v>6.5487316274291001E-4</v>
       </c>
       <c r="C146">
         <v>1.9315908E-2</v>
@@ -6952,7 +6948,7 @@
         <v>160</v>
       </c>
       <c r="B147">
-        <v>5.3790753399570303E-4</v>
+        <v>6.5974441749462901E-4</v>
       </c>
       <c r="C147">
         <v>1.9560270000000001E-2</v>
@@ -6964,7 +6960,7 @@
         <v>161</v>
       </c>
       <c r="B148">
-        <v>5.4187148882860496E-4</v>
+        <v>6.6462036103575597E-4</v>
       </c>
       <c r="C148">
         <v>1.9806167999999999E-2</v>
@@ -6976,7 +6972,7 @@
         <v>162</v>
       </c>
       <c r="B149">
-        <v>5.4583917139440095E-4</v>
+        <v>6.6950096424300105E-4</v>
       </c>
       <c r="C149">
         <v>2.0053602E-2</v>
@@ -6988,7 +6984,7 @@
         <v>163</v>
       </c>
       <c r="B150">
-        <v>5.4981055868210098E-4</v>
+        <v>6.7438619835262601E-4</v>
       </c>
       <c r="C150">
         <v>2.0302572000000001E-2</v>
@@ -7000,7 +6996,7 @@
         <v>164</v>
       </c>
       <c r="B151">
-        <v>5.5378562796306403E-4</v>
+        <v>6.7927603495383001E-4</v>
       </c>
       <c r="C151">
         <v>2.0553077999999999E-2</v>
@@ -7012,7 +7008,7 @@
         <v>165</v>
       </c>
       <c r="B152">
-        <v>5.5776435678583296E-4</v>
+        <v>6.8417044598229103E-4</v>
       </c>
       <c r="C152">
         <v>2.080512E-2</v>
@@ -7024,7 +7020,7 @@
         <v>166</v>
       </c>
       <c r="B153">
-        <v>5.6174672297109305E-4</v>
+        <v>6.8906940371386697E-4</v>
       </c>
       <c r="C153">
         <v>2.1058698000000001E-2</v>
@@ -7036,7 +7032,7 @@
         <v>167</v>
       </c>
       <c r="B154">
-        <v>5.6573270460675705E-4</v>
+        <v>6.9397288075844703E-4</v>
       </c>
       <c r="C154">
         <v>2.1313812000000001E-2</v>
@@ -7048,7 +7044,7 @@
         <v>168</v>
       </c>
       <c r="B155">
-        <v>5.6972228004316199E-4</v>
+        <v>6.9888085005395304E-4</v>
       </c>
       <c r="C155">
         <v>2.1570461999999999E-2</v>
@@ -7060,7 +7056,7 @@
         <v>169</v>
       </c>
       <c r="B156">
-        <v>5.7371542788838296E-4</v>
+        <v>7.0379328486047795E-4</v>
       </c>
       <c r="C156">
         <v>2.1828647999999999E-2</v>
@@ -7072,7 +7068,7 @@
         <v>170</v>
       </c>
       <c r="B157">
-        <v>5.77712127003658E-4</v>
+        <v>7.0871015875457295E-4</v>
       </c>
       <c r="C157">
         <v>2.208837E-2</v>
@@ -7084,7 +7080,7 @@
         <v>171</v>
       </c>
       <c r="B158">
-        <v>5.8171235649892301E-4</v>
+        <v>7.1363144562365402E-4</v>
       </c>
       <c r="C158">
         <v>2.2349628E-2</v>
@@ -7096,7 +7092,7 @@
         <v>172</v>
       </c>
       <c r="B159">
-        <v>5.8571609572844504E-4</v>
+        <v>7.1855711966055597E-4</v>
       </c>
       <c r="C159">
         <v>2.2612422E-2</v>
@@ -7108,7 +7104,7 @@
         <v>173</v>
       </c>
       <c r="B160">
-        <v>5.8972332428655996E-4</v>
+        <v>7.2348715535820003E-4</v>
       </c>
       <c r="C160">
         <v>2.2876752E-2</v>
@@ -7120,7 +7116,7 @@
         <v>174</v>
       </c>
       <c r="B161">
-        <v>5.9373402200351398E-4</v>
+        <v>7.2842152750439296E-4</v>
       </c>
       <c r="C161">
         <v>2.3142618E-2</v>
@@ -7132,7 +7128,7 @@
         <v>175</v>
       </c>
       <c r="B162">
-        <v>5.9774816894139402E-4</v>
+        <v>7.3336021117674196E-4</v>
       </c>
       <c r="C162">
         <v>2.341002E-2</v>
@@ -7144,7 +7140,7 @@
         <v>176</v>
       </c>
       <c r="B163">
-        <v>6.0176574539014802E-4</v>
+        <v>7.3830318173768604E-4</v>
       </c>
       <c r="C163">
         <v>2.3678958E-2</v>
@@ -7156,7 +7152,7 @@
         <v>177</v>
       </c>
       <c r="B164">
-        <v>6.05786731863711E-4</v>
+        <v>7.4325041482963905E-4</v>
       </c>
       <c r="C164">
         <v>2.3949432E-2</v>
@@ -7168,7 +7164,7 @@
         <v>178</v>
       </c>
       <c r="B165">
-        <v>6.0981110909619999E-4</v>
+        <v>7.4820188637024997E-4</v>
       </c>
       <c r="C165">
         <v>2.4221441999999999E-2</v>
@@ -7180,7 +7176,7 @@
         <v>179</v>
       </c>
       <c r="B166">
-        <v>6.1383885803820604E-4</v>
+        <v>7.5315757254775699E-4</v>
       </c>
       <c r="C166">
         <v>2.4494987999999999E-2</v>
@@ -7192,7 +7188,7 @@
         <v>180</v>
       </c>
       <c r="B167">
-        <v>6.1786995985316597E-4</v>
+        <v>7.5811744981645805E-4</v>
       </c>
       <c r="C167">
         <v>2.4770070000000002E-2</v>
@@ -7204,7 +7200,7 @@
         <v>181</v>
       </c>
       <c r="B168">
-        <v>6.2190439591381698E-4</v>
+        <v>7.6308149489227102E-4</v>
       </c>
       <c r="C168">
         <v>2.5046688000000001E-2</v>
@@ -7216,7 +7212,7 @@
         <v>182</v>
       </c>
       <c r="B169">
-        <v>6.2594214779872399E-4</v>
+        <v>7.6804968474840504E-4</v>
       </c>
       <c r="C169">
         <v>2.5324842E-2</v>
@@ -7228,7 +7224,7 @@
         <v>183</v>
       </c>
       <c r="B170">
-        <v>6.29983197288888E-4</v>
+        <v>7.7302199661110997E-4</v>
       </c>
       <c r="C170">
         <v>2.5604531999999999E-2</v>
@@ -7240,7 +7236,7 @@
         <v>184</v>
       </c>
       <c r="B171">
-        <v>6.3402752636442796E-4</v>
+        <v>7.7799840795553504E-4</v>
       </c>
       <c r="C171">
         <v>2.5885757999999998E-2</v>
@@ -7252,7 +7248,7 @@
         <v>185</v>
       </c>
       <c r="B172">
-        <v>6.38075117201335E-4</v>
+        <v>7.8297889650166905E-4</v>
       </c>
       <c r="C172">
         <v>2.6168520000000001E-2</v>
@@ -7264,7 +7260,7 @@
         <v>186</v>
       </c>
       <c r="B173">
-        <v>6.4212595216829496E-4</v>
+        <v>7.8796344021036895E-4</v>
       </c>
       <c r="C173">
         <v>2.6452817999999999E-2</v>
@@ -7276,7 +7272,7 @@
         <v>187</v>
       </c>
       <c r="B174">
-        <v>6.46180013823579E-4</v>
+        <v>7.9295201727947395E-4</v>
       </c>
       <c r="C174">
         <v>2.6738652000000002E-2</v>
@@ -7288,7 +7284,7 @@
         <v>188</v>
       </c>
       <c r="B175">
-        <v>6.5023728491200503E-4</v>
+        <v>7.97944606140006E-4</v>
       </c>
       <c r="C175">
         <v>2.7026022E-2</v>
@@ -7300,7 +7296,7 @@
         <v>189</v>
       </c>
       <c r="B176">
-        <v>6.5429774836195799E-4</v>
+        <v>8.0294118545244696E-4</v>
       </c>
       <c r="C176">
         <v>2.7314927999999999E-2</v>
@@ -7312,7 +7308,7 @@
         <v>190</v>
       </c>
       <c r="B177">
-        <v>6.58361387282478E-4</v>
+        <v>8.0794173410309803E-4</v>
       </c>
       <c r="C177">
         <v>2.7605370000000001E-2</v>
@@ -7324,7 +7320,7 @@
         <v>191</v>
       </c>
       <c r="B178">
-        <v>6.6242818496040805E-4</v>
+        <v>8.1294623120051104E-4</v>
       </c>
       <c r="C178">
         <v>2.7897347999999999E-2</v>
@@ -7336,7 +7332,7 @@
         <v>192</v>
       </c>
       <c r="B179">
-        <v>6.6649812485760002E-4</v>
+        <v>8.1795465607199997E-4</v>
       </c>
       <c r="C179">
         <v>2.8190862000000001E-2</v>
@@ -7348,7 +7344,7 @@
         <v>193</v>
       </c>
       <c r="B180">
-        <v>6.7057119060817997E-4</v>
+        <v>8.2296698826022502E-4</v>
       </c>
       <c r="C180">
         <v>2.8485911999999999E-2</v>
@@ -7360,7 +7356,7 @@
         <v>194</v>
       </c>
       <c r="B181">
-        <v>6.7464736601586996E-4</v>
+        <v>8.2798320751983803E-4</v>
       </c>
       <c r="C181">
         <v>2.8782498E-2</v>
@@ -7372,7 +7368,7 @@
         <v>195</v>
       </c>
       <c r="B182">
-        <v>6.7872663505136798E-4</v>
+        <v>8.3300329381421105E-4</v>
       </c>
       <c r="C182">
         <v>2.9080620000000001E-2</v>
@@ -7384,7 +7380,7 @@
         <v>196</v>
       </c>
       <c r="B183">
-        <v>6.8280898184977805E-4</v>
+        <v>8.3802722731222197E-4</v>
       </c>
       <c r="C183">
         <v>2.9380277999999999E-2</v>
@@ -7396,7 +7392,7 @@
         <v>197</v>
       </c>
       <c r="B184">
-        <v>6.86894390708089E-4</v>
+        <v>8.4305498838511104E-4</v>
       </c>
       <c r="C184">
         <v>2.9681472E-2</v>
@@ -7408,7 +7404,7 @@
         <v>198</v>
       </c>
       <c r="B185">
-        <v>6.9098284608271803E-4</v>
+        <v>8.4808655760339701E-4</v>
       </c>
       <c r="C185">
         <v>2.9984202000000001E-2</v>
@@ -7420,7 +7416,7 @@
         <v>199</v>
       </c>
       <c r="B186">
-        <v>6.9507433258708597E-4</v>
+        <v>8.5312191573385699E-4</v>
       </c>
       <c r="C186">
         <v>3.0288467999999999E-2</v>
@@ -7432,7 +7428,7 @@
         <v>200</v>
       </c>
       <c r="B187">
-        <v>6.99168834989257E-4</v>
+        <v>8.5816104373657098E-4</v>
       </c>
       <c r="C187">
         <v>3.059427E-2</v>
@@ -7444,7 +7440,7 @@
         <v>201</v>
       </c>
       <c r="B188">
-        <v>7.0326633820961702E-4</v>
+        <v>8.6320392276202195E-4</v>
       </c>
       <c r="C188">
         <v>3.0901608000000001E-2</v>
@@ -7456,7 +7452,7 @@
         <v>202</v>
       </c>
       <c r="B189">
-        <v>7.0736682731859901E-4</v>
+        <v>8.6825053414824895E-4</v>
       </c>
       <c r="C189">
         <v>3.1210482000000001E-2</v>
@@ -7468,7 +7464,7 @@
         <v>203</v>
       </c>
       <c r="B190">
-        <v>7.11470287534454E-4</v>
+        <v>8.7330085941806702E-4</v>
       </c>
       <c r="C190">
         <v>3.1520892000000002E-2</v>
@@ -7480,7 +7476,7 @@
         <v>204</v>
       </c>
       <c r="B191">
-        <v>7.1557670422106904E-4</v>
+        <v>8.7835488027633601E-4</v>
       </c>
       <c r="C191">
         <v>3.1832838000000002E-2</v>
@@ -7492,7 +7488,7 @@
         <v>205</v>
       </c>
       <c r="B192">
-        <v>7.19686062885825E-4</v>
+        <v>8.8341257860728099E-4</v>
       </c>
       <c r="C192">
         <v>3.2146319999999999E-2</v>
@@ -7504,7 +7500,7 @@
         <v>206</v>
       </c>
       <c r="B193">
-        <v>7.2379834917749302E-4</v>
+        <v>8.8847393647186596E-4</v>
       </c>
       <c r="C193">
         <v>3.2461337999999999E-2</v>
@@ -7516,7 +7512,7 @@
         <v>207</v>
       </c>
       <c r="B194">
-        <v>7.2791354888418198E-4</v>
+        <v>8.9353893610522701E-4</v>
       </c>
       <c r="C194">
         <v>3.2777892000000003E-2</v>
@@ -7528,7 +7524,7 @@
         <v>208</v>
       </c>
       <c r="B195">
-        <v>7.3203164793131305E-4</v>
+        <v>8.9860755991414104E-4</v>
       </c>
       <c r="C195">
         <v>3.3095982000000003E-2</v>
@@ -7540,7 +7536,7 @@
         <v>209</v>
       </c>
       <c r="B196">
-        <v>7.3615263237964096E-4</v>
+        <v>9.0367979047455095E-4</v>
       </c>
       <c r="C196">
         <v>3.3415607999999999E-2</v>
@@ -7552,7 +7548,7 @@
         <v>210</v>
       </c>
       <c r="B197">
-        <v>7.4027648842331199E-4</v>
+        <v>9.0875561052914105E-4</v>
       </c>
       <c r="C197">
         <v>3.3736769999999999E-2</v>
@@ -7564,7 +7560,7 @@
         <v>211</v>
       </c>
       <c r="B198">
-        <v>7.44403202387962E-4</v>
+        <v>9.1383500298495299E-4</v>
       </c>
       <c r="C198">
         <v>3.4059468000000002E-2</v>
@@ -7576,7 +7572,7 @@
         <v>212</v>
       </c>
       <c r="B199">
-        <v>7.4853276072883799E-4</v>
+        <v>9.1891795091104695E-4</v>
       </c>
       <c r="C199">
         <v>3.4383702000000002E-2</v>
@@ -7588,7 +7584,7 @@
         <v>213</v>
       </c>
       <c r="B200">
-        <v>7.5266515002897104E-4</v>
+        <v>9.2400443753621405E-4</v>
       </c>
       <c r="C200">
         <v>3.4709471999999998E-2</v>
@@ -7600,7 +7596,7 @@
         <v>214</v>
       </c>
       <c r="B201">
-        <v>7.5680035699737596E-4</v>
+        <v>9.2909444624672002E-4</v>
       </c>
       <c r="C201">
         <v>3.5036777999999998E-2</v>
@@ -7612,7 +7608,7 @@
         <v>215</v>
       </c>
       <c r="B202">
-        <v>7.6093836846728095E-4</v>
+        <v>9.3418796058410201E-4</v>
       </c>
       <c r="C202">
         <v>3.536562E-2</v>
@@ -7624,7 +7620,7 @@
         <v>216</v>
       </c>
       <c r="B203">
-        <v>7.6507917139440095E-4</v>
+        <v>9.3928496424300096E-4</v>
       </c>
       <c r="C203">
         <v>3.5695998E-2</v>
@@ -7636,7 +7632,7 @@
         <v>217</v>
       </c>
       <c r="B204">
-        <v>7.6922275285522799E-4</v>
+        <v>9.4438544106903498E-4</v>
       </c>
       <c r="C204">
         <v>3.6027912000000002E-2</v>
@@ -7648,7 +7644,7 @@
         <v>218</v>
       </c>
       <c r="B205">
-        <v>7.7336910004536998E-4</v>
+        <v>9.4948937505671201E-4</v>
       </c>
       <c r="C205">
         <v>3.6361362000000001E-2</v>
@@ -7660,7 +7656,7 @@
         <v>219</v>
       </c>
       <c r="B206">
-        <v>7.7751820027790498E-4</v>
+        <v>9.5459675034738204E-4</v>
       </c>
       <c r="C206">
         <v>3.6696347999999997E-2</v>
@@ -7672,7 +7668,7 @@
         <v>220</v>
       </c>
       <c r="B207">
-        <v>7.8167004098177704E-4</v>
+        <v>9.5970755122722095E-4</v>
       </c>
       <c r="C207">
         <v>3.7032870000000002E-2</v>
@@ -7684,7 +7680,7 @@
         <v>221</v>
       </c>
       <c r="B208">
-        <v>7.8582460970021096E-4</v>
+        <v>9.64821762125263E-4</v>
       </c>
       <c r="C208">
         <v>3.7370927999999998E-2</v>
@@ -7696,7 +7692,7 @@
         <v>222</v>
       </c>
       <c r="B209">
-        <v>7.8998189408916505E-4</v>
+        <v>9.6993936761145599E-4</v>
       </c>
       <c r="C209">
         <v>3.7710522000000003E-2</v>
@@ -7708,7 +7704,7 @@
         <v>223</v>
       </c>
       <c r="B210">
-        <v>7.9414188191580704E-4</v>
+        <v>9.7506035239475902E-4</v>
       </c>
       <c r="C210">
         <v>3.8051651999999998E-2</v>
@@ -7720,7 +7716,7 @@
         <v>224</v>
       </c>
       <c r="B211">
-        <v>7.9830456105701596E-4</v>
+        <v>9.8018470132126998E-4</v>
       </c>
       <c r="C211">
         <v>3.8394317999999997E-2</v>
@@ -7732,7 +7728,7 @@
         <v>225</v>
       </c>
       <c r="B212">
-        <v>8.0246991949791497E-4</v>
+        <v>9.8531239937239292E-4</v>
       </c>
       <c r="C212">
         <v>3.8738519999999999E-2</v>
@@ -7744,7 +7740,7 @@
         <v>226</v>
       </c>
       <c r="B213">
-        <v>8.0663794533042605E-4</v>
+        <v>9.9044343166303293E-4</v>
       </c>
       <c r="C213">
         <v>3.9084257999999997E-2</v>
@@ -7756,7 +7752,7 @@
         <v>227</v>
       </c>
       <c r="B214">
-        <v>8.1080862675185603E-4</v>
+        <v>9.9557778343982006E-4</v>
       </c>
       <c r="C214">
         <v>3.9431531999999998E-2</v>
@@ -7768,7 +7764,7 @@
         <v>228</v>
       </c>
       <c r="B215">
-        <v>8.1498195206349705E-4</v>
+        <v>1.00071544007937E-3</v>
       </c>
       <c r="C215">
         <v>3.9780342000000003E-2</v>
@@ -7780,7 +7776,7 @@
         <v>229</v>
       </c>
       <c r="B216">
-        <v>8.1915790966926704E-4</v>
+        <v>1.0058563870865801E-3</v>
       </c>
       <c r="C216">
         <v>4.0130687999999998E-2</v>
@@ -7792,7 +7788,7 @@
         <v>230</v>
       </c>
       <c r="B217">
-        <v>8.2333648807435798E-4</v>
+        <v>1.0110006100929501E-3</v>
       </c>
       <c r="C217">
         <v>4.0482570000000002E-2</v>
@@ -7804,7 +7800,7 @@
         <v>231</v>
       </c>
       <c r="B218">
-        <v>8.2751767588391801E-4</v>
+        <v>1.0161480948548999E-3</v>
       </c>
       <c r="C218">
         <v>4.0835987999999997E-2</v>
@@ -7816,7 +7812,7 @@
         <v>232</v>
       </c>
       <c r="B219">
-        <v>8.3170146180175202E-4</v>
+        <v>1.0212988272521901E-3</v>
       </c>
       <c r="C219">
         <v>4.1190942000000001E-2</v>
@@ -7828,7 +7824,7 @@
         <v>233</v>
       </c>
       <c r="B220">
-        <v>8.3588783462905001E-4</v>
+        <v>1.0264527932863101E-3</v>
       </c>
       <c r="C220">
         <v>4.1547432000000002E-2</v>
@@ -7840,7 +7836,7 @@
         <v>234</v>
       </c>
       <c r="B221">
-        <v>8.4007678326312703E-4</v>
+        <v>1.0316099790789099E-3</v>
       </c>
       <c r="C221">
         <v>4.1905458E-2</v>
@@ -7852,7 +7848,7 @@
         <v>235</v>
       </c>
       <c r="B222">
-        <v>8.44268296696194E-4</v>
+        <v>1.0367703708702399E-3</v>
       </c>
       <c r="C222">
         <v>4.226502E-2</v>
@@ -7864,7 +7860,7 @@
         <v>236</v>
       </c>
       <c r="B223">
-        <v>8.4846236401414795E-4</v>
+        <v>1.04193395501769E-3</v>
       </c>
       <c r="C223">
         <v>4.2626117999999998E-2</v>
@@ -7876,7 +7872,7 @@
         <v>237</v>
       </c>
       <c r="B224">
-        <v>8.5265897439537695E-4</v>
+        <v>1.0471007179942201E-3</v>
       </c>
       <c r="C224">
         <v>4.2988751999999998E-2</v>
@@ -7888,7 +7884,7 @@
         <v>238</v>
       </c>
       <c r="B225">
-        <v>8.5685811710959302E-4</v>
+        <v>1.0522706463869901E-3</v>
       </c>
       <c r="C225">
         <v>4.3352922000000002E-2</v>
@@ -7900,7 +7896,7 @@
         <v>239</v>
       </c>
       <c r="B226">
-        <v>8.6105978151667804E-4</v>
+        <v>1.0574437268958501E-3</v>
       </c>
       <c r="C226">
         <v>4.3718628000000002E-2</v>
@@ -7912,7 +7908,7 @@
         <v>240</v>
       </c>
       <c r="B227">
-        <v>8.6526395706555399E-4</v>
+        <v>1.06261994633194E-3</v>
       </c>
       <c r="C227">
         <v>4.4085869999999999E-2</v>
@@ -7924,7 +7920,7 @@
         <v>241</v>
       </c>
       <c r="B228">
-        <v>8.6947063329307099E-4</v>
+        <v>1.0677992916163399E-3</v>
       </c>
       <c r="C228">
         <v>4.4454647999999999E-2</v>
@@ -7936,7 +7932,7 @@
         <v>242</v>
       </c>
       <c r="B229">
-        <v>8.7367979982290803E-4</v>
+        <v>1.07298174977864E-3</v>
       </c>
       <c r="C229">
         <v>4.4824962000000003E-2</v>
@@ -7948,7 +7944,7 @@
         <v>243</v>
       </c>
       <c r="B230">
-        <v>8.7789144636450103E-4</v>
+        <v>1.0781673079556301E-3</v>
       </c>
       <c r="C230">
         <v>4.5196812000000003E-2</v>
@@ -7960,7 +7956,7 @@
         <v>244</v>
       </c>
       <c r="B231">
-        <v>8.8210556271198302E-4</v>
+        <v>1.0833559533899801E-3</v>
       </c>
       <c r="C231">
         <v>4.5570197999999999E-2</v>
@@ -7972,7 +7968,7 @@
         <v>245</v>
       </c>
       <c r="B232">
-        <v>8.8632213874314202E-4</v>
+        <v>1.0885476734289301E-3</v>
       </c>
       <c r="C232">
         <v>4.5945119999999999E-2</v>
@@ -7984,7 +7980,7 @@
         <v>246</v>
       </c>
       <c r="B233">
-        <v>8.9054116441839601E-4</v>
+        <v>1.0937424555229999E-3</v>
       </c>
       <c r="C233">
         <v>4.6321578000000002E-2</v>
@@ -7996,7 +7992,7 @@
         <v>247</v>
       </c>
       <c r="B234">
-        <v>8.9476262977978898E-4</v>
+        <v>1.0989402872247399E-3</v>
       </c>
       <c r="C234">
         <v>4.6699572000000002E-2</v>
@@ -8008,7 +8004,7 @@
         <v>248</v>
       </c>
       <c r="B235">
-        <v>8.9898652494999304E-4</v>
+        <v>1.1041411561874899E-3</v>
       </c>
       <c r="C235">
         <v>4.7079101999999998E-2</v>
@@ -8020,7 +8016,7 @@
         <v>249</v>
       </c>
       <c r="B236">
-        <v>9.0321284013133996E-4</v>
+        <v>1.10934505016418E-3</v>
       </c>
       <c r="C236">
         <v>4.7460167999999997E-2</v>
@@ -8032,7 +8028,7 @@
         <v>250</v>
       </c>
       <c r="B237">
-        <v>9.0744156560485705E-4</v>
+        <v>1.11455195700607E-3</v>
       </c>
       <c r="C237">
         <v>4.784277E-2</v>
@@ -8044,7 +8040,7 @@
         <v>251</v>
       </c>
       <c r="B238">
-        <v>9.1167269172932398E-4</v>
+        <v>1.1197618646616499E-3</v>
       </c>
       <c r="C238">
         <v>4.8226907999999999E-2</v>
@@ -8056,7 +8052,7 @@
         <v>252</v>
       </c>
       <c r="B239">
-        <v>9.1590620894034297E-4</v>
+        <v>1.1249747611754299E-3</v>
       </c>
       <c r="C239">
         <v>4.8612582000000001E-2</v>
@@ -8068,7 +8064,7 @@
         <v>253</v>
       </c>
       <c r="B240">
-        <v>9.2014210774942699E-4</v>
+        <v>1.13019063468678E-3</v>
       </c>
       <c r="C240">
         <v>4.8999792E-2</v>
@@ -8080,7 +8076,7 @@
         <v>254</v>
       </c>
       <c r="B241">
-        <v>9.24380378743094E-4</v>
+        <v>1.1354094734288701E-3</v>
       </c>
       <c r="C241">
         <v>4.9388538000000003E-2</v>
@@ -8092,7 +8088,7 @@
         <v>255</v>
       </c>
       <c r="B242">
-        <v>9.2862101258198799E-4</v>
+        <v>1.14063126572748E-3</v>
       </c>
       <c r="C242">
         <v>4.9778820000000001E-2</v>
@@ -8104,7 +8100,7 @@
         <v>256</v>
       </c>
       <c r="B243">
-        <v>9.3286400000000005E-4</v>
+        <v>1.145856E-3</v>
       </c>
       <c r="C243">
         <v>5.0170637999999997E-2</v>
@@ -8117,7 +8113,6 @@
     <mergeCell ref="I1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/results/modeled_times.xlsx
+++ b/results/modeled_times.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1380" yWindow="-19040" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 1" sheetId="2" r:id="rId1"/>
@@ -663,11 +663,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269441624"/>
-        <c:axId val="785298904"/>
+        <c:axId val="668907624"/>
+        <c:axId val="668913128"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="269441624"/>
+        <c:axId val="668907624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="785298904"/>
+        <c:crossAx val="668913128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -706,7 +706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="785298904"/>
+        <c:axId val="668913128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,15 +746,34 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269441624"/>
+        <c:crossAx val="668907624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.799279440069991"/>
+          <c:y val="0.175248021833155"/>
+          <c:w val="0.123683522892972"/>
+          <c:h val="0.0874358058869093"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -3767,11 +3786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="664757400"/>
-        <c:axId val="714147816"/>
+        <c:axId val="668728424"/>
+        <c:axId val="668574232"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="664757400"/>
+        <c:axId val="668728424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3800,7 +3819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="714147816"/>
+        <c:crossAx val="668574232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3810,7 +3829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="714147816"/>
+        <c:axId val="668574232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3850,15 +3869,34 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="664757400"/>
+        <c:crossAx val="668728424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.129649810440362"/>
+          <c:y val="0.164363669024486"/>
+          <c:w val="0.123683522892972"/>
+          <c:h val="0.0874358058869093"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -4215,11 +4253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="665087160"/>
-        <c:axId val="787640696"/>
+        <c:axId val="782409016"/>
+        <c:axId val="782414568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="665087160"/>
+        <c:axId val="782409016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="16.0"/>
@@ -4249,12 +4287,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="787640696"/>
+        <c:crossAx val="782414568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="787640696"/>
+        <c:axId val="782414568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4285,7 +4323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="665087160"/>
+        <c:crossAx val="782409016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4306,7 +4344,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4317,7 +4355,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4339,7 +4377,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4350,7 +4388,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8575040" cy="5831840"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4377,7 +4415,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8575040" cy="5831840"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4431,7 +4469,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8575040" cy="5831840"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8853,7 +8891,6 @@
     <mergeCell ref="I1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/results/modeled_times.xlsx
+++ b/results/modeled_times.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="340" yWindow="-19900" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 1" sheetId="2" r:id="rId1"/>
@@ -231,7 +231,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -663,11 +662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="668907624"/>
-        <c:axId val="668913128"/>
+        <c:axId val="650782552"/>
+        <c:axId val="650789416"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="668907624"/>
+        <c:axId val="650782552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -689,14 +688,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="668913128"/>
+        <c:crossAx val="650789416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -706,7 +704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="668913128"/>
+        <c:axId val="650789416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,7 +727,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -746,7 +743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668907624"/>
+        <c:crossAx val="650782552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -822,7 +819,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3786,11 +3782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="668728424"/>
-        <c:axId val="668574232"/>
+        <c:axId val="651464744"/>
+        <c:axId val="651470232"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="668728424"/>
+        <c:axId val="651464744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3812,14 +3808,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="668574232"/>
+        <c:crossAx val="651470232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3829,7 +3824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="668574232"/>
+        <c:axId val="651470232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3852,7 +3847,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -3869,7 +3863,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668728424"/>
+        <c:crossAx val="651464744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4021,6 +4015,27 @@
                   <c:y val="0.0177629552504284"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Precomputed</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> Back Propagation Coefficients</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t> (2KB)
+9%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
@@ -4253,11 +4268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="782409016"/>
-        <c:axId val="782414568"/>
+        <c:axId val="651551992"/>
+        <c:axId val="651557512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="782409016"/>
+        <c:axId val="651551992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="16.0"/>
@@ -4287,12 +4302,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="782414568"/>
+        <c:crossAx val="651557512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="782414568"/>
+        <c:axId val="651557512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4323,7 +4338,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="782409016"/>
+        <c:crossAx val="651551992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4355,7 +4370,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4366,7 +4381,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4377,7 +4392,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4442,7 +4457,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8575040" cy="5831840"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
